--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -10,8 +10,7 @@
   <sheets>
     <sheet name="10yr" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="5yr" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ynet" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ynet" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="129">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -231,6 +230,9 @@
     <t xml:space="preserve">מרכז רפואי שהם</t>
   </si>
   <si>
+    <t xml:space="preserve">מרכז רפואי כרמל</t>
+  </si>
+  <si>
     <t xml:space="preserve">פאני אהרפי</t>
   </si>
   <si>
@@ -436,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">מחלות רקע מרובות וקשות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ציפורה מאיר (שנלר)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא סבל ממחלות רקע</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ynet.co.il/articles/0,7340,L-5714462,00.html</t>
@@ -1182,7 +1190,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1317,16 +1325,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,11 +1342,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="47299951"/>
-        <c:axId val="7485058"/>
+        <c:axId val="75926658"/>
+        <c:axId val="8875285"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47299951"/>
+        <c:axId val="75926658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,14 +1374,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7485058"/>
+        <c:crossAx val="8875285"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7485058"/>
+        <c:axId val="8875285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1418,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47299951"/>
+        <c:crossAx val="75926658"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1439,7 +1447,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1483,7 +1491,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>5yr!$J$1</c:f>
+              <c:f>5yr!$J$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1610,40 +1618,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,11 +1659,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="68207990"/>
-        <c:axId val="47984240"/>
+        <c:axId val="3666293"/>
+        <c:axId val="67912668"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68207990"/>
+        <c:axId val="3666293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,14 +1691,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47984240"/>
+        <c:crossAx val="67912668"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47984240"/>
+        <c:axId val="67912668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68207990"/>
+        <c:crossAx val="3666293"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1767,9 +1775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1778,7 +1786,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7875720" y="3165120"/>
-        <a:ext cx="6896160" cy="4052880"/>
+        <a:ext cx="6895440" cy="4052160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1802,9 +1810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>394200</xdr:colOff>
+      <xdr:colOff>393480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1813,7 +1821,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2438640" y="3901320"/>
-        <a:ext cx="6896160" cy="4053240"/>
+        <a:ext cx="6895440" cy="4052520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1831,10 +1839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D159" activeCellId="0" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,7 +1891,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1923,7 +1931,7 @@
         <v>0-10</v>
       </c>
       <c r="K2" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H2,$C$2:$C$122,"&lt;="&amp;I2)</f>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H2,$C$2:$C$200,"&lt;="&amp;I2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="3"/>
@@ -1972,7 +1980,7 @@
         <v>11-20</v>
       </c>
       <c r="K3" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H3,$C$2:$C$122,"&lt;="&amp;I3)</f>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H3,$C$2:$C$200,"&lt;="&amp;I3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="3"/>
@@ -2023,7 +2031,7 @@
         <v>21-30</v>
       </c>
       <c r="K4" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H4,$C$2:$C$122,"&lt;="&amp;I4)</f>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H4,$C$2:$C$200,"&lt;="&amp;I4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="3"/>
@@ -2074,13 +2082,13 @@
         <v>31-40</v>
       </c>
       <c r="K5" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H5,$C$2:$C$122,"&lt;="&amp;I5)</f>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H5,$C$2:$C$200,"&lt;="&amp;I5)</f>
         <v>1</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
         <f aca="false">K5/SUM($K$2:$K$11)</f>
-        <v>0.00847457627118644</v>
+        <v>0.00680272108843537</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>25</v>
@@ -2121,13 +2129,13 @@
         <v>41-50</v>
       </c>
       <c r="K6" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H6,$C$2:$C$122,"&lt;="&amp;I6)</f>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H6,$C$2:$C$200,"&lt;="&amp;I6)</f>
         <v>3</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
         <f aca="false">K6/SUM($K$2:$K$11)</f>
-        <v>0.0254237288135593</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>19</v>
@@ -2168,20 +2176,20 @@
         <v>51-60</v>
       </c>
       <c r="K7" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H7,$C$2:$C$122,"&lt;="&amp;I7)</f>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H7,$C$2:$C$200,"&lt;="&amp;I7)</f>
         <v>2</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
         <f aca="false">K7/SUM($K$2:$K$11)</f>
-        <v>0.0169491525423729</v>
+        <v>0.0136054421768707</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$150,S7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,13 +2222,13 @@
         <v>61-70</v>
       </c>
       <c r="K8" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H8,$C$2:$C$122,"&lt;="&amp;I8)</f>
-        <v>14</v>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H8,$C$2:$C$200,"&lt;="&amp;I8)</f>
+        <v>17</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
         <f aca="false">K8/SUM($K$2:$K$11)</f>
-        <v>0.11864406779661</v>
+        <v>0.115646258503401</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>28</v>
@@ -2261,20 +2269,20 @@
         <v>71-80</v>
       </c>
       <c r="K9" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H9,$C$2:$C$122,"&lt;="&amp;I9)</f>
-        <v>37</v>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H9,$C$2:$C$200,"&lt;="&amp;I9)</f>
+        <v>47</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
         <f aca="false">K9/SUM($K$2:$K$11)</f>
-        <v>0.313559322033898</v>
+        <v>0.319727891156463</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$150,S9)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,20 +2320,20 @@
         <v>81-90</v>
       </c>
       <c r="K10" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H10,$C$2:$C$122,"&lt;="&amp;I10)</f>
-        <v>40</v>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H10,$C$2:$C$200,"&lt;="&amp;I10)</f>
+        <v>52</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
         <f aca="false">K10/SUM($K$2:$K$11)</f>
-        <v>0.338983050847458</v>
+        <v>0.353741496598639</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$150,S10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,20 +2371,20 @@
         <v>91-100</v>
       </c>
       <c r="K11" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$122,"&gt;="&amp;H11,$C$2:$C$122,"&lt;="&amp;I11)</f>
-        <v>21</v>
+        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H11,$C$2:$C$200,"&lt;="&amp;I11)</f>
+        <v>25</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
         <f aca="false">K11/SUM($K$2:$K$11)</f>
-        <v>0.177966101694915</v>
+        <v>0.170068027210884</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="T11" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$150,S11)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,7 +2531,7 @@
       </c>
       <c r="T16" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$150,S16)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U16" s="27"/>
     </row>
@@ -2582,7 +2590,7 @@
       </c>
       <c r="J18" s="30" t="n">
         <f aca="false">AVERAGE(C2:C202)</f>
-        <v>80.0724637681159</v>
+        <v>80.2857142857143</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>48</v>
@@ -2809,6 +2817,13 @@
         <v>15</v>
       </c>
       <c r="G26" s="24"/>
+      <c r="S26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T26" s="12" t="n">
+        <f aca="false">COUNTIF($F$1:$F$150,S26)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
@@ -2830,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2907,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,7 +2930,7 @@
         <v>25</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,7 +2950,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,7 +2985,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>10</v>
@@ -3060,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3083,7 +3098,7 @@
         <v>34</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,7 +3142,7 @@
         <v>27</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,7 +3183,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,7 +3206,7 @@
         <v>44</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3232,7 +3247,7 @@
         <v>25</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>14</v>
@@ -3255,7 +3270,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3316,7 @@
         <v>30</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3351,7 @@
         <v>98</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>14</v>
@@ -3366,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,7 +3395,7 @@
         <v>80</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>10</v>
@@ -3389,7 +3404,7 @@
         <v>44</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,7 +3438,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>10</v>
@@ -3432,7 +3447,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J55" s="32"/>
     </row>
@@ -3513,7 +3528,7 @@
         <v>57</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3591,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,7 +3631,7 @@
         <v>34</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,7 +3645,7 @@
         <v>95</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>14</v>
@@ -3677,7 +3692,7 @@
         <v>30</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,7 +3733,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="G72" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,7 +3812,7 @@
         <v>90</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>14</v>
@@ -3848,7 +3863,7 @@
         <v>30</v>
       </c>
       <c r="G75" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V75" s="45"/>
     </row>
@@ -3869,7 +3884,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V76" s="45"/>
     </row>
@@ -3946,7 +3961,7 @@
         <v>89</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>14</v>
@@ -3973,7 +3988,7 @@
         <v>32</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,7 +4062,7 @@
         <v>57</v>
       </c>
       <c r="G85" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,7 +4153,7 @@
         <v>19</v>
       </c>
       <c r="G90" s="48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,7 +4190,7 @@
         <v>56</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,7 +4204,7 @@
         <v>86</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E93" s="0" t="s">
         <v>14</v>
@@ -4209,7 +4224,7 @@
         <v>84</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E94" s="0" t="s">
         <v>14</v>
@@ -4238,7 +4253,7 @@
         <v>50</v>
       </c>
       <c r="G95" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,7 +4267,7 @@
         <v>64</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E96" s="0" t="s">
         <v>10</v>
@@ -4278,7 +4293,7 @@
         <v>50</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,7 +4378,7 @@
         <v>79</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E102" s="0" t="s">
         <v>10</v>
@@ -4389,7 +4404,7 @@
         <v>19</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4447,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4487,7 @@
         <v>37</v>
       </c>
       <c r="G108" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4501,7 @@
         <v>80</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E109" s="0" t="s">
         <v>14</v>
@@ -4506,7 +4521,7 @@
         <v>78</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>10</v>
@@ -4515,7 +4530,7 @@
         <v>19</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,7 +4598,7 @@
         <v>53</v>
       </c>
       <c r="G114" s="48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4632,7 @@
         <v>85</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>14</v>
@@ -4759,7 +4774,7 @@
         <v>90</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>10</v>
@@ -4779,7 +4794,7 @@
         <v>78</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E125" s="0" t="s">
         <v>10</v>
@@ -4865,10 +4880,10 @@
         <v>10</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G129" s="48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,8 +4967,20 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="22" t="n">
+        <v>43937</v>
+      </c>
       <c r="B134" s="6" t="n">
         <v>133</v>
+      </c>
+      <c r="C134" s="23" t="n">
+        <v>80</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,13 +4991,16 @@
         <v>134</v>
       </c>
       <c r="C135" s="23" t="n">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,7 +5011,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="23" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>42</v>
@@ -5001,16 +5031,16 @@
         <v>136</v>
       </c>
       <c r="C137" s="23" t="n">
-        <v>71</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,10 +5051,10 @@
         <v>137</v>
       </c>
       <c r="C138" s="23" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E138" s="0" t="s">
         <v>10</v>
@@ -5041,13 +5071,13 @@
         <v>138</v>
       </c>
       <c r="C139" s="23" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>22</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F139" s="0" t="s">
         <v>23</v>
@@ -5061,16 +5091,13 @@
         <v>139</v>
       </c>
       <c r="C140" s="23" t="n">
-        <v>74</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="E140" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,13 +5108,16 @@
         <v>140</v>
       </c>
       <c r="C141" s="23" t="n">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,7 +5128,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="23" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>42</v>
@@ -5107,7 +5137,7 @@
         <v>10</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,17 +5147,165 @@
       <c r="B143" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="C143" s="23" t="n">
-        <v>85</v>
+      <c r="C143" s="0" t="n">
+        <v>86</v>
       </c>
       <c r="D143" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="22" t="n">
+        <v>43937</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="C144" s="23" t="n">
+        <v>84</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="C145" s="23" t="n">
+        <v>76</v>
+      </c>
+      <c r="D145" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="0" t="s">
+      <c r="E145" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="C146" s="23" t="n">
+        <v>96</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="C147" s="23" t="n">
+        <v>66</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="C148" s="23" t="n">
+        <v>91</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="0" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="C149" s="23" t="n">
+        <v>93</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="C150" s="23" t="n">
+        <v>70</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C151" s="23" t="n">
+        <v>90</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5149,8 +5327,8 @@
   </sheetPr>
   <dimension ref="G1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5167,7 +5345,7 @@
       </c>
       <c r="L1" s="32" t="n">
         <f aca="true">TODAY()</f>
-        <v>43937</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +5360,7 @@
         <v>0-5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G2,10yr!$C$2:$C$101,"&lt;="&amp;H2)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G2,10yr!$C$2:$C$200,"&lt;="&amp;H2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="50" t="n">
@@ -5204,7 +5382,7 @@
         <v>6-10</v>
       </c>
       <c r="J3" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G3,10yr!$C$2:$C$101,"&lt;="&amp;H3)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G3,10yr!$C$2:$C$200,"&lt;="&amp;H3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="50" t="n">
@@ -5226,7 +5404,7 @@
         <v>11-15</v>
       </c>
       <c r="J4" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G4,10yr!$C$2:$C$101,"&lt;="&amp;H4)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G4,10yr!$C$2:$C$200,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="50" t="n">
@@ -5248,7 +5426,7 @@
         <v>16-20</v>
       </c>
       <c r="J5" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G5,10yr!$C$2:$C$101,"&lt;="&amp;H5)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G5,10yr!$C$2:$C$200,"&lt;="&amp;H5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="50" t="n">
@@ -5270,7 +5448,7 @@
         <v>21-25</v>
       </c>
       <c r="J6" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G6,10yr!$C$2:$C$101,"&lt;="&amp;H6)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G6,10yr!$C$2:$C$200,"&lt;="&amp;H6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="50" t="n">
@@ -5292,7 +5470,7 @@
         <v>26-30</v>
       </c>
       <c r="J7" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G7,10yr!$C$2:$C$101,"&lt;="&amp;H7)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G7,10yr!$C$2:$C$200,"&lt;="&amp;H7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="50" t="n">
@@ -5314,7 +5492,7 @@
         <v>31-35</v>
       </c>
       <c r="J8" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G8,10yr!$C$2:$C$101,"&lt;="&amp;H8)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G8,10yr!$C$2:$C$200,"&lt;="&amp;H8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="50" t="n">
@@ -5336,12 +5514,12 @@
         <v>36-40</v>
       </c>
       <c r="J9" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G9,10yr!$C$2:$C$101,"&lt;="&amp;H9)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G9,10yr!$C$2:$C$200,"&lt;="&amp;H9)</f>
         <v>1</v>
       </c>
       <c r="L9" s="50" t="n">
         <f aca="false">J9/SUM($J$2:$J$21)</f>
-        <v>0.01</v>
+        <v>0.00680272108843537</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,12 +5536,12 @@
         <v>41-45</v>
       </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G10,10yr!$C$2:$C$101,"&lt;="&amp;H10)</f>
-        <v>0</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G10,10yr!$C$2:$C$200,"&lt;="&amp;H10)</f>
+        <v>1</v>
       </c>
       <c r="L10" s="50" t="n">
         <f aca="false">J10/SUM($J$2:$J$21)</f>
-        <v>0</v>
+        <v>0.00680272108843537</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,12 +5558,12 @@
         <v>46-50</v>
       </c>
       <c r="J11" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G11,10yr!$C$2:$C$101,"&lt;="&amp;H11)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G11,10yr!$C$2:$C$200,"&lt;="&amp;H11)</f>
         <v>2</v>
       </c>
       <c r="L11" s="50" t="n">
         <f aca="false">J11/SUM($J$2:$J$21)</f>
-        <v>0.02</v>
+        <v>0.0136054421768707</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,12 +5580,12 @@
         <v>51-55</v>
       </c>
       <c r="J12" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G12,10yr!$C$2:$C$101,"&lt;="&amp;H12)</f>
-        <v>0</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G12,10yr!$C$2:$C$200,"&lt;="&amp;H12)</f>
+        <v>1</v>
       </c>
       <c r="L12" s="50" t="n">
         <f aca="false">J12/SUM($J$2:$J$21)</f>
-        <v>0</v>
+        <v>0.00680272108843537</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,12 +5602,12 @@
         <v>56-60</v>
       </c>
       <c r="J13" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G13,10yr!$C$2:$C$101,"&lt;="&amp;H13)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G13,10yr!$C$2:$C$200,"&lt;="&amp;H13)</f>
         <v>1</v>
       </c>
       <c r="L13" s="50" t="n">
         <f aca="false">J13/SUM($J$2:$J$21)</f>
-        <v>0.01</v>
+        <v>0.00680272108843537</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,12 +5624,12 @@
         <v>61-65</v>
       </c>
       <c r="J14" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G14,10yr!$C$2:$C$101,"&lt;="&amp;H14)</f>
-        <v>5</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G14,10yr!$C$2:$C$200,"&lt;="&amp;H14)</f>
+        <v>6</v>
       </c>
       <c r="L14" s="50" t="n">
         <f aca="false">J14/SUM($J$2:$J$21)</f>
-        <v>0.05</v>
+        <v>0.0408163265306122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,12 +5646,12 @@
         <v>66-70</v>
       </c>
       <c r="J15" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G15,10yr!$C$2:$C$101,"&lt;="&amp;H15)</f>
-        <v>8</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G15,10yr!$C$2:$C$200,"&lt;="&amp;H15)</f>
+        <v>11</v>
       </c>
       <c r="L15" s="50" t="n">
         <f aca="false">J15/SUM($J$2:$J$21)</f>
-        <v>0.08</v>
+        <v>0.0748299319727891</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,12 +5668,12 @@
         <v>71-75</v>
       </c>
       <c r="J16" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G16,10yr!$C$2:$C$101,"&lt;="&amp;H16)</f>
-        <v>17</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G16,10yr!$C$2:$C$200,"&lt;="&amp;H16)</f>
+        <v>22</v>
       </c>
       <c r="L16" s="50" t="n">
         <f aca="false">J16/SUM($J$2:$J$21)</f>
-        <v>0.17</v>
+        <v>0.149659863945578</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,12 +5690,12 @@
         <v>76-80</v>
       </c>
       <c r="J17" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G17,10yr!$C$2:$C$101,"&lt;="&amp;H17)</f>
-        <v>14</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G17,10yr!$C$2:$C$200,"&lt;="&amp;H17)</f>
+        <v>25</v>
       </c>
       <c r="L17" s="50" t="n">
         <f aca="false">J17/SUM($J$2:$J$21)</f>
-        <v>0.14</v>
+        <v>0.170068027210884</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,12 +5712,12 @@
         <v>81-85</v>
       </c>
       <c r="J18" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G18,10yr!$C$2:$C$101,"&lt;="&amp;H18)</f>
-        <v>11</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G18,10yr!$C$2:$C$200,"&lt;="&amp;H18)</f>
+        <v>21</v>
       </c>
       <c r="L18" s="50" t="n">
         <f aca="false">J18/SUM($J$2:$J$21)</f>
-        <v>0.11</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,12 +5734,12 @@
         <v>86-90</v>
       </c>
       <c r="J19" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G19,10yr!$C$2:$C$101,"&lt;="&amp;H19)</f>
-        <v>22</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G19,10yr!$C$2:$C$200,"&lt;="&amp;H19)</f>
+        <v>31</v>
       </c>
       <c r="L19" s="50" t="n">
         <f aca="false">J19/SUM($J$2:$J$21)</f>
-        <v>0.22</v>
+        <v>0.210884353741497</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,12 +5756,12 @@
         <v>91-95</v>
       </c>
       <c r="J20" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G20,10yr!$C$2:$C$101,"&lt;="&amp;H20)</f>
-        <v>12</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G20,10yr!$C$2:$C$200,"&lt;="&amp;H20)</f>
+        <v>16</v>
       </c>
       <c r="L20" s="50" t="n">
         <f aca="false">J20/SUM($J$2:$J$21)</f>
-        <v>0.12</v>
+        <v>0.108843537414966</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,12 +5778,12 @@
         <v>96-100</v>
       </c>
       <c r="J21" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$101,"&gt;="&amp;G21,10yr!$C$2:$C$101,"&lt;="&amp;H21)</f>
-        <v>7</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G21,10yr!$C$2:$C$200,"&lt;="&amp;H21)</f>
+        <v>9</v>
       </c>
       <c r="L21" s="50" t="n">
         <f aca="false">J21/SUM($J$2:$J$21)</f>
-        <v>0.07</v>
+        <v>0.0612244897959184</v>
       </c>
     </row>
   </sheetData>
@@ -5621,67 +5799,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K42" activeCellId="0" sqref="K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5705,7 +5822,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -5742,7 +5859,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,7 +5876,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>15</v>
@@ -5779,7 +5896,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,10 +5910,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,13 +5924,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>23</v>
@@ -5830,7 +5947,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
@@ -5847,10 +5964,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +5981,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>15</v>
@@ -5884,7 +6001,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
@@ -5904,7 +6021,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>34</v>
@@ -5924,7 +6041,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>15</v>
@@ -5944,10 +6061,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,10 +6081,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -5998,13 +6115,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -6024,7 +6141,7 @@
         <v>91</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>52</v>
@@ -6044,7 +6161,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>23</v>
@@ -6064,10 +6181,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,7 +6198,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>15</v>
@@ -6101,10 +6218,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,7 +6235,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>30</v>
@@ -6135,7 +6252,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -6152,7 +6269,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>15</v>
@@ -6169,7 +6286,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>23</v>
@@ -6183,13 +6300,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>15</v>
@@ -6203,13 +6320,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>23</v>
@@ -6226,7 +6343,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>11</v>
@@ -6243,7 +6360,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>19</v>
@@ -6260,7 +6377,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>19</v>
@@ -6274,13 +6391,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>77</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>25</v>
@@ -6294,13 +6411,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>77</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>25</v>
@@ -6317,7 +6434,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>13</v>
@@ -6331,13 +6448,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>34</v>
@@ -6351,13 +6468,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>11</v>
@@ -6374,10 +6491,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6388,13 +6505,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>87</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>30</v>
@@ -6411,7 +6528,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>13</v>
@@ -6428,7 +6545,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>32</v>
@@ -6442,13 +6559,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>70</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>13</v>
@@ -6462,13 +6579,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>75</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>27</v>
@@ -6482,13 +6599,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>25</v>
@@ -6505,7 +6622,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>30</v>
@@ -6519,13 +6636,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>88</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -6539,16 +6656,16 @@
         <v>44</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>88</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6562,7 +6679,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>11</v>
@@ -6576,13 +6693,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>63</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -6596,16 +6713,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,7 +6736,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>15</v>
@@ -6633,13 +6750,13 @@
         <v>49</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>30</v>
@@ -6656,7 +6773,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>13</v>
@@ -6670,13 +6787,13 @@
         <v>51</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>77</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -6690,16 +6807,16 @@
         <v>52</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6713,7 +6830,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -6727,16 +6844,16 @@
         <v>54</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,16 +6864,16 @@
         <v>55</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>95</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,7 +6887,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>13</v>
@@ -6784,16 +6901,16 @@
         <v>57</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,13 +6921,13 @@
         <v>58</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>95</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>13</v>
@@ -6824,13 +6941,13 @@
         <v>59</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>37</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>34</v>
@@ -6847,10 +6964,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6864,10 +6981,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6881,10 +6998,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,13 +7012,13 @@
         <v>63</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>97</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>30</v>
@@ -6918,7 +7035,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>13</v>
@@ -6935,7 +7052,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>15</v>
@@ -6949,13 +7066,13 @@
         <v>66</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>96</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>30</v>
@@ -6972,7 +7089,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>30</v>
@@ -6989,7 +7106,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>13</v>
@@ -7006,7 +7123,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>13</v>
@@ -7020,16 +7137,16 @@
         <v>70</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>85</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7043,7 +7160,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>11</v>
@@ -7057,16 +7174,16 @@
         <v>72</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>67</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7077,13 +7194,13 @@
         <v>73</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>32</v>
@@ -7100,10 +7217,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,10 +7234,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7134,7 +7251,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>23</v>
@@ -7151,7 +7268,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>15</v>
@@ -7165,16 +7282,16 @@
         <v>78</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,7 +7305,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>55</v>
@@ -7205,13 +7322,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7225,10 +7342,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7242,7 +7359,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>11</v>
@@ -7259,7 +7376,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>23</v>
@@ -7273,16 +7390,16 @@
         <v>84</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>87</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,13 +7410,13 @@
         <v>85</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>64</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>19</v>
@@ -7313,13 +7430,13 @@
         <v>86</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>78</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>50</v>
@@ -7333,13 +7450,13 @@
         <v>87</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>50</v>
@@ -7356,7 +7473,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>11</v>
@@ -7373,7 +7490,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>27</v>
@@ -7390,10 +7507,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,7 +7524,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>19</v>
@@ -7424,7 +7541,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>23</v>
@@ -7438,13 +7555,13 @@
         <v>93</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>53</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>19</v>
@@ -7461,7 +7578,7 @@
         <v>63</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>55</v>
@@ -7478,10 +7595,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7492,13 +7609,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>11</v>
@@ -7512,16 +7629,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,13 +7649,13 @@
         <v>98</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>78</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>19</v>
@@ -7555,7 +7672,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>13</v>
@@ -7572,7 +7689,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>13</v>
@@ -7589,7 +7706,7 @@
         <v>80</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>55</v>
@@ -7603,13 +7720,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,7 +7740,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>50</v>
@@ -7640,7 +7757,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>11</v>
@@ -7657,10 +7774,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>48</v>
@@ -7691,7 +7808,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>23</v>
@@ -7708,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>13</v>
@@ -7725,7 +7842,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>15</v>
@@ -7742,7 +7859,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>55</v>
@@ -7759,7 +7876,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>11</v>
@@ -7776,7 +7893,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>19</v>
@@ -7790,13 +7907,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>30</v>
@@ -7810,16 +7927,16 @@
         <v>114</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>73</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="129">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -1190,7 +1190,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1325,13 +1325,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>25</c:v>
@@ -1342,11 +1342,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="75926658"/>
-        <c:axId val="8875285"/>
+        <c:axId val="5331089"/>
+        <c:axId val="68123475"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75926658"/>
+        <c:axId val="5331089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,14 +1374,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8875285"/>
+        <c:crossAx val="68123475"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8875285"/>
+        <c:axId val="68123475"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1418,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75926658"/>
+        <c:crossAx val="5331089"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1447,7 +1447,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1630,22 +1630,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16</c:v>
@@ -1659,11 +1659,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="3666293"/>
-        <c:axId val="67912668"/>
+        <c:axId val="61660683"/>
+        <c:axId val="24106045"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3666293"/>
+        <c:axId val="61660683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1691,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67912668"/>
+        <c:crossAx val="24106045"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67912668"/>
+        <c:axId val="24106045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3666293"/>
+        <c:crossAx val="61660683"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1775,9 +1775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>58320</xdr:colOff>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1786,7 +1786,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7875720" y="3165120"/>
-        <a:ext cx="6895440" cy="4052160"/>
+        <a:ext cx="6895080" cy="4051800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1810,9 +1810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>393480</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1821,7 +1821,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2438640" y="3901320"/>
-        <a:ext cx="6895440" cy="4052520"/>
+        <a:ext cx="6895080" cy="4052160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1839,10 +1839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D159" activeCellId="0" sqref="D159"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C164" activeCellId="0" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1891,7 +1891,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1943,8 +1943,8 @@
         <v>13</v>
       </c>
       <c r="T2" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S2)</f>
-        <v>13</v>
+        <f aca="false">COUNTIF($F$1:$F$200,S2)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,7 +1992,7 @@
         <v>17</v>
       </c>
       <c r="T3" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S3)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S3)</f>
         <v>1</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="T4" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S4)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S4)</f>
         <v>0</v>
       </c>
     </row>
@@ -2088,13 +2088,13 @@
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
         <f aca="false">K5/SUM($K$2:$K$11)</f>
-        <v>0.00680272108843537</v>
+        <v>0.00645161290322581</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="T5" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S5)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S5)</f>
         <v>3</v>
       </c>
     </row>
@@ -2135,13 +2135,13 @@
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
         <f aca="false">K6/SUM($K$2:$K$11)</f>
-        <v>0.0204081632653061</v>
+        <v>0.0193548387096774</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="T6" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S6)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S6)</f>
         <v>13</v>
       </c>
     </row>
@@ -2182,13 +2182,13 @@
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
         <f aca="false">K7/SUM($K$2:$K$11)</f>
-        <v>0.0136054421768707</v>
+        <v>0.0129032258064516</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S7)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S7)</f>
         <v>3</v>
       </c>
     </row>
@@ -2223,18 +2223,18 @@
       </c>
       <c r="K8" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H8,$C$2:$C$200,"&lt;="&amp;I8)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
         <f aca="false">K8/SUM($K$2:$K$11)</f>
-        <v>0.115646258503401</v>
+        <v>0.12258064516129</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S8)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S8)</f>
         <v>4</v>
       </c>
     </row>
@@ -2270,18 +2270,18 @@
       </c>
       <c r="K9" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H9,$C$2:$C$200,"&lt;="&amp;I9)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
         <f aca="false">K9/SUM($K$2:$K$11)</f>
-        <v>0.319727891156463</v>
+        <v>0.309677419354839</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S9)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S9)</f>
         <v>15</v>
       </c>
     </row>
@@ -2321,19 +2321,19 @@
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H10,$C$2:$C$200,"&lt;="&amp;I10)</f>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
         <f aca="false">K10/SUM($K$2:$K$11)</f>
-        <v>0.353741496598639</v>
+        <v>0.367741935483871</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S10)</f>
-        <v>5</v>
+        <f aca="false">COUNTIF($F$1:$F$200,S10)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,13 +2377,13 @@
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
         <f aca="false">K11/SUM($K$2:$K$11)</f>
-        <v>0.170068027210884</v>
+        <v>0.161290322580645</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="T11" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S11)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S11)</f>
         <v>9</v>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
         <v>30</v>
       </c>
       <c r="T12" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S12)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S12)</f>
         <v>9</v>
       </c>
       <c r="U12" s="23"/>
@@ -2442,7 +2442,7 @@
         <v>37</v>
       </c>
       <c r="T13" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S13)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S13)</f>
         <v>4</v>
       </c>
     </row>
@@ -2472,8 +2472,8 @@
         <v>23</v>
       </c>
       <c r="T14" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S14)</f>
-        <v>13</v>
+        <f aca="false">COUNTIF($F$1:$F$200,S14)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,7 +2502,7 @@
         <v>44</v>
       </c>
       <c r="T15" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S15)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S15)</f>
         <v>6</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="T16" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S16)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S16)</f>
         <v>22</v>
       </c>
       <c r="U16" s="27"/>
@@ -2562,7 +2562,7 @@
         <v>34</v>
       </c>
       <c r="T17" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S17)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S17)</f>
         <v>5</v>
       </c>
     </row>
@@ -2590,13 +2590,13 @@
       </c>
       <c r="J18" s="30" t="n">
         <f aca="false">AVERAGE(C2:C202)</f>
-        <v>80.2857142857143</v>
+        <v>80.2258064516129</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S18)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S18)</f>
         <v>1</v>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S19)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S19)</f>
         <v>4</v>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
         <v>52</v>
       </c>
       <c r="T20" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S20)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S20)</f>
         <v>1</v>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
         <v>53</v>
       </c>
       <c r="T21" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S21)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S21)</f>
         <v>1</v>
       </c>
     </row>
@@ -2709,8 +2709,8 @@
         <v>55</v>
       </c>
       <c r="T22" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S22)</f>
-        <v>6</v>
+        <f aca="false">COUNTIF($F$1:$F$200,S22)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2737,7 @@
         <v>56</v>
       </c>
       <c r="T23" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S23)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S23)</f>
         <v>2</v>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
         <v>57</v>
       </c>
       <c r="T24" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S24)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S24)</f>
         <v>3</v>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
         <v>59</v>
       </c>
       <c r="T25" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S25)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S25)</f>
         <v>2</v>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
         <v>60</v>
       </c>
       <c r="T26" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$150,S26)</f>
+        <f aca="false">COUNTIF($F$1:$F$200,S26)</f>
         <v>1</v>
       </c>
     </row>
@@ -5306,6 +5306,187 @@
       </c>
       <c r="F151" s="0" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="22" t="n">
+        <v>43938</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="C153" s="23" t="n">
+        <v>70</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="C155" s="23" t="n">
+        <v>77</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="C157" s="23" t="n">
+        <v>85</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="C158" s="23" t="n">
+        <v>82</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="C159" s="23" t="n">
+        <v>87</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" s="23" t="n">
+        <v>82</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="n">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5526,7 @@
       </c>
       <c r="L1" s="32" t="n">
         <f aca="true">TODAY()</f>
-        <v>43938</v>
+        <v>43939</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,7 +5700,7 @@
       </c>
       <c r="L9" s="50" t="n">
         <f aca="false">J9/SUM($J$2:$J$21)</f>
-        <v>0.00680272108843537</v>
+        <v>0.00645161290322581</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5722,7 @@
       </c>
       <c r="L10" s="50" t="n">
         <f aca="false">J10/SUM($J$2:$J$21)</f>
-        <v>0.00680272108843537</v>
+        <v>0.00645161290322581</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5744,7 @@
       </c>
       <c r="L11" s="50" t="n">
         <f aca="false">J11/SUM($J$2:$J$21)</f>
-        <v>0.0136054421768707</v>
+        <v>0.0129032258064516</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,7 +5766,7 @@
       </c>
       <c r="L12" s="50" t="n">
         <f aca="false">J12/SUM($J$2:$J$21)</f>
-        <v>0.00680272108843537</v>
+        <v>0.00645161290322581</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,7 +5788,7 @@
       </c>
       <c r="L13" s="50" t="n">
         <f aca="false">J13/SUM($J$2:$J$21)</f>
-        <v>0.00680272108843537</v>
+        <v>0.00645161290322581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,11 +5806,11 @@
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G14,10yr!$C$2:$C$200,"&lt;="&amp;H14)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" s="50" t="n">
         <f aca="false">J14/SUM($J$2:$J$21)</f>
-        <v>0.0408163265306122</v>
+        <v>0.0451612903225806</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5647,11 +5828,11 @@
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G15,10yr!$C$2:$C$200,"&lt;="&amp;H15)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15" s="50" t="n">
         <f aca="false">J15/SUM($J$2:$J$21)</f>
-        <v>0.0748299319727891</v>
+        <v>0.0774193548387097</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,7 +5854,7 @@
       </c>
       <c r="L16" s="50" t="n">
         <f aca="false">J16/SUM($J$2:$J$21)</f>
-        <v>0.149659863945578</v>
+        <v>0.141935483870968</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,11 +5872,11 @@
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G17,10yr!$C$2:$C$200,"&lt;="&amp;H17)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" s="50" t="n">
         <f aca="false">J17/SUM($J$2:$J$21)</f>
-        <v>0.170068027210884</v>
+        <v>0.167741935483871</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,11 +5894,11 @@
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G18,10yr!$C$2:$C$200,"&lt;="&amp;H18)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L18" s="50" t="n">
         <f aca="false">J18/SUM($J$2:$J$21)</f>
-        <v>0.142857142857143</v>
+        <v>0.154838709677419</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,11 +5916,11 @@
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G19,10yr!$C$2:$C$200,"&lt;="&amp;H19)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L19" s="50" t="n">
         <f aca="false">J19/SUM($J$2:$J$21)</f>
-        <v>0.210884353741497</v>
+        <v>0.212903225806452</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,7 +5942,7 @@
       </c>
       <c r="L20" s="50" t="n">
         <f aca="false">J20/SUM($J$2:$J$21)</f>
-        <v>0.108843537414966</v>
+        <v>0.103225806451613</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,7 +5964,7 @@
       </c>
       <c r="L21" s="50" t="n">
         <f aca="false">J21/SUM($J$2:$J$21)</f>
-        <v>0.0612244897959184</v>
+        <v>0.0580645161290323</v>
       </c>
     </row>
   </sheetData>

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="130">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t xml:space="preserve">לא סבל ממחלות רקע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחלה ממארת סופנית</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ynet.co.il/articles/0,7340,L-5714462,00.html</t>
@@ -1190,7 +1193,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1313,7 +1316,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1328,13 +1331,13 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,11 +1345,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="5331089"/>
-        <c:axId val="68123475"/>
+        <c:axId val="3194698"/>
+        <c:axId val="4075879"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5331089"/>
+        <c:axId val="3194698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,14 +1377,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68123475"/>
+        <c:crossAx val="4075879"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68123475"/>
+        <c:axId val="4075879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1421,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5331089"/>
+        <c:crossAx val="3194698"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1447,7 +1450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1609,7 +1612,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1636,22 +1639,22 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,11 +1662,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61660683"/>
-        <c:axId val="24106045"/>
+        <c:axId val="68358877"/>
+        <c:axId val="20663031"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61660683"/>
+        <c:axId val="68358877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1694,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24106045"/>
+        <c:crossAx val="20663031"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24106045"/>
+        <c:axId val="20663031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1738,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61660683"/>
+        <c:crossAx val="68358877"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1775,9 +1778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57960</xdr:colOff>
+      <xdr:colOff>57600</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1786,7 +1789,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7875720" y="3165120"/>
-        <a:ext cx="6895080" cy="4051800"/>
+        <a:ext cx="6894720" cy="4051440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1810,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
+      <xdr:colOff>392760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1821,7 +1824,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2438640" y="3901320"/>
-        <a:ext cx="6895080" cy="4052160"/>
+        <a:ext cx="6894720" cy="4051800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1839,10 +1842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C164" activeCellId="0" sqref="C164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1891,7 +1894,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1993,7 +1996,7 @@
       </c>
       <c r="T3" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2032,12 +2035,12 @@
       </c>
       <c r="K4" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H4,$C$2:$C$200,"&lt;="&amp;I4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="10" t="n">
         <f aca="false">K4/SUM($K$2:$K$11)</f>
-        <v>0</v>
+        <v>0.00613496932515337</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>21</v>
@@ -2088,7 +2091,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
         <f aca="false">K5/SUM($K$2:$K$11)</f>
-        <v>0.00645161290322581</v>
+        <v>0.00613496932515337</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>25</v>
@@ -2135,14 +2138,14 @@
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
         <f aca="false">K6/SUM($K$2:$K$11)</f>
-        <v>0.0193548387096774</v>
+        <v>0.0184049079754601</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="T6" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S6)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,14 +2185,14 @@
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
         <f aca="false">K7/SUM($K$2:$K$11)</f>
-        <v>0.0129032258064516</v>
+        <v>0.0122699386503067</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,7 +2231,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
         <f aca="false">K8/SUM($K$2:$K$11)</f>
-        <v>0.12258064516129</v>
+        <v>0.116564417177914</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>28</v>
@@ -2270,12 +2273,12 @@
       </c>
       <c r="K9" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H9,$C$2:$C$200,"&lt;="&amp;I9)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
         <f aca="false">K9/SUM($K$2:$K$11)</f>
-        <v>0.309677419354839</v>
+        <v>0.312883435582822</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>15</v>
@@ -2321,12 +2324,12 @@
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H10,$C$2:$C$200,"&lt;="&amp;I10)</f>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
         <f aca="false">K10/SUM($K$2:$K$11)</f>
-        <v>0.367741935483871</v>
+        <v>0.368098159509202</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>32</v>
@@ -2372,19 +2375,19 @@
       </c>
       <c r="K11" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H11,$C$2:$C$200,"&lt;="&amp;I11)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
         <f aca="false">K11/SUM($K$2:$K$11)</f>
-        <v>0.161290322580645</v>
+        <v>0.159509202453988</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="T11" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S11)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,7 +2593,7 @@
       </c>
       <c r="J18" s="30" t="n">
         <f aca="false">AVERAGE(C2:C202)</f>
-        <v>80.2258064516129</v>
+        <v>80.0429447852761</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>48</v>
@@ -2627,7 +2630,7 @@
       </c>
       <c r="T19" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2713,7 @@
       </c>
       <c r="T22" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S22)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,8 +5488,155 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="22" t="n">
+        <v>43939</v>
+      </c>
       <c r="B165" s="0" t="n">
         <v>164</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="22" t="n">
+        <v>43939</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="C166" s="23" t="n">
+        <v>85</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="22" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="22" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="22" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="22" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="C170" s="23" t="n">
+        <v>71</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="22" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="22" t="n">
+        <v>43940</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +5676,7 @@
       </c>
       <c r="L1" s="32" t="n">
         <f aca="true">TODAY()</f>
-        <v>43939</v>
+        <v>43940</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5652,11 +5802,11 @@
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G7,10yr!$C$2:$C$200,"&lt;="&amp;H7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="50" t="n">
         <f aca="false">J7/SUM($J$2:$J$21)</f>
-        <v>0</v>
+        <v>0.00613496932515337</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,7 +5850,7 @@
       </c>
       <c r="L9" s="50" t="n">
         <f aca="false">J9/SUM($J$2:$J$21)</f>
-        <v>0.00645161290322581</v>
+        <v>0.00613496932515337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,7 +5872,7 @@
       </c>
       <c r="L10" s="50" t="n">
         <f aca="false">J10/SUM($J$2:$J$21)</f>
-        <v>0.00645161290322581</v>
+        <v>0.00613496932515337</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +5894,7 @@
       </c>
       <c r="L11" s="50" t="n">
         <f aca="false">J11/SUM($J$2:$J$21)</f>
-        <v>0.0129032258064516</v>
+        <v>0.0122699386503067</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5766,7 +5916,7 @@
       </c>
       <c r="L12" s="50" t="n">
         <f aca="false">J12/SUM($J$2:$J$21)</f>
-        <v>0.00645161290322581</v>
+        <v>0.00613496932515337</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,7 +5938,7 @@
       </c>
       <c r="L13" s="50" t="n">
         <f aca="false">J13/SUM($J$2:$J$21)</f>
-        <v>0.00645161290322581</v>
+        <v>0.00613496932515337</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,7 +5960,7 @@
       </c>
       <c r="L14" s="50" t="n">
         <f aca="false">J14/SUM($J$2:$J$21)</f>
-        <v>0.0451612903225806</v>
+        <v>0.0429447852760736</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5982,7 @@
       </c>
       <c r="L15" s="50" t="n">
         <f aca="false">J15/SUM($J$2:$J$21)</f>
-        <v>0.0774193548387097</v>
+        <v>0.0736196319018405</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,11 +6000,11 @@
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G16,10yr!$C$2:$C$200,"&lt;="&amp;H16)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" s="50" t="n">
         <f aca="false">J16/SUM($J$2:$J$21)</f>
-        <v>0.141935483870968</v>
+        <v>0.141104294478528</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,11 +6022,11 @@
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G17,10yr!$C$2:$C$200,"&lt;="&amp;H17)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L17" s="50" t="n">
         <f aca="false">J17/SUM($J$2:$J$21)</f>
-        <v>0.167741935483871</v>
+        <v>0.171779141104294</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,11 +6044,11 @@
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G18,10yr!$C$2:$C$200,"&lt;="&amp;H18)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" s="50" t="n">
         <f aca="false">J18/SUM($J$2:$J$21)</f>
-        <v>0.154838709677419</v>
+        <v>0.153374233128834</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,11 +6066,11 @@
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G19,10yr!$C$2:$C$200,"&lt;="&amp;H19)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="50" t="n">
         <f aca="false">J19/SUM($J$2:$J$21)</f>
-        <v>0.212903225806452</v>
+        <v>0.214723926380368</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,7 +6092,7 @@
       </c>
       <c r="L20" s="50" t="n">
         <f aca="false">J20/SUM($J$2:$J$21)</f>
-        <v>0.103225806451613</v>
+        <v>0.098159509202454</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,11 +6110,11 @@
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G21,10yr!$C$2:$C$200,"&lt;="&amp;H21)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L21" s="50" t="n">
         <f aca="false">J21/SUM($J$2:$J$21)</f>
-        <v>0.0580645161290323</v>
+        <v>0.0613496932515337</v>
       </c>
     </row>
   </sheetData>
@@ -6003,7 +6153,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -6040,7 +6190,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,7 +6207,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>15</v>
@@ -6077,7 +6227,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,10 +6241,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,13 +6255,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>23</v>
@@ -6128,7 +6278,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
@@ -6145,10 +6295,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,7 +6312,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>15</v>
@@ -6182,7 +6332,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
@@ -6202,7 +6352,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>34</v>
@@ -6222,7 +6372,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>15</v>
@@ -6242,10 +6392,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6262,10 +6412,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6282,7 +6432,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -6296,13 +6446,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -6322,7 +6472,7 @@
         <v>91</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>52</v>
@@ -6342,7 +6492,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>23</v>
@@ -6362,10 +6512,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +6529,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>15</v>
@@ -6399,10 +6549,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,7 +6566,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>30</v>
@@ -6433,7 +6583,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -6450,7 +6600,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>15</v>
@@ -6467,7 +6617,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>23</v>
@@ -6481,13 +6631,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>15</v>
@@ -6507,7 +6657,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>23</v>
@@ -6524,7 +6674,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>11</v>
@@ -6541,7 +6691,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>19</v>
@@ -6558,7 +6708,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>19</v>
@@ -6578,7 +6728,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>25</v>
@@ -6598,7 +6748,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>25</v>
@@ -6615,7 +6765,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>13</v>
@@ -6629,13 +6779,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>34</v>
@@ -6655,7 +6805,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>11</v>
@@ -6672,10 +6822,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6692,7 +6842,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>30</v>
@@ -6709,7 +6859,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>13</v>
@@ -6726,7 +6876,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>32</v>
@@ -6746,7 +6896,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>13</v>
@@ -6766,7 +6916,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>27</v>
@@ -6786,7 +6936,7 @@
         <v>76</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>25</v>
@@ -6803,7 +6953,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>30</v>
@@ -6823,7 +6973,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -6843,10 +6993,10 @@
         <v>88</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,7 +7010,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>11</v>
@@ -6880,7 +7030,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -6894,16 +7044,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,7 +7067,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>15</v>
@@ -6937,7 +7087,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>30</v>
@@ -6954,7 +7104,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>13</v>
@@ -6974,7 +7124,7 @@
         <v>77</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -6994,10 +7144,10 @@
         <v>90</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,7 +7161,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -7031,10 +7181,10 @@
         <v>66</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,10 +7201,10 @@
         <v>95</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7068,7 +7218,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>13</v>
@@ -7088,10 +7238,10 @@
         <v>80</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,7 +7258,7 @@
         <v>95</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>13</v>
@@ -7128,7 +7278,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>34</v>
@@ -7145,10 +7295,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,10 +7312,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7179,10 +7329,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,7 +7349,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>30</v>
@@ -7216,7 +7366,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>13</v>
@@ -7233,7 +7383,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>15</v>
@@ -7253,7 +7403,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>30</v>
@@ -7270,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>30</v>
@@ -7287,7 +7437,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>13</v>
@@ -7304,7 +7454,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>13</v>
@@ -7324,10 +7474,10 @@
         <v>85</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,7 +7491,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>11</v>
@@ -7361,10 +7511,10 @@
         <v>67</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,7 +7531,7 @@
         <v>90</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>32</v>
@@ -7398,10 +7548,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,10 +7565,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,7 +7582,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>23</v>
@@ -7449,7 +7599,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>15</v>
@@ -7469,10 +7619,10 @@
         <v>84</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7486,7 +7636,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>55</v>
@@ -7503,13 +7653,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G83" s="52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,10 +7673,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7540,7 +7690,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>11</v>
@@ -7557,7 +7707,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>23</v>
@@ -7577,10 +7727,10 @@
         <v>87</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +7747,7 @@
         <v>64</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>19</v>
@@ -7617,7 +7767,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>50</v>
@@ -7637,7 +7787,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>50</v>
@@ -7654,7 +7804,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>11</v>
@@ -7671,7 +7821,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>27</v>
@@ -7688,10 +7838,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +7855,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>19</v>
@@ -7722,7 +7872,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>23</v>
@@ -7742,7 +7892,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>19</v>
@@ -7759,7 +7909,7 @@
         <v>63</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>55</v>
@@ -7776,10 +7926,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7790,13 +7940,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>11</v>
@@ -7810,16 +7960,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,7 +7986,7 @@
         <v>78</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>19</v>
@@ -7853,7 +8003,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>13</v>
@@ -7870,7 +8020,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>13</v>
@@ -7887,7 +8037,7 @@
         <v>80</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>55</v>
@@ -7907,7 +8057,7 @@
         <v>40</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7921,7 +8071,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>50</v>
@@ -7938,7 +8088,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>11</v>
@@ -7955,10 +8105,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,7 +8122,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>48</v>
@@ -7989,7 +8139,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>23</v>
@@ -8006,7 +8156,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>13</v>
@@ -8023,7 +8173,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>15</v>
@@ -8040,7 +8190,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>55</v>
@@ -8057,7 +8207,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>11</v>
@@ -8074,7 +8224,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>19</v>
@@ -8088,13 +8238,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>30</v>
@@ -8114,10 +8264,10 @@
         <v>73</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="130">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -908,7 +908,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1109,6 +1109,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1193,7 +1197,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1328,13 +1332,13 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>26</c:v>
@@ -1345,11 +1349,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="3194698"/>
-        <c:axId val="4075879"/>
+        <c:axId val="36709746"/>
+        <c:axId val="75579389"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="3194698"/>
+        <c:axId val="36709746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,14 +1381,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4075879"/>
+        <c:crossAx val="75579389"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4075879"/>
+        <c:axId val="75579389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1425,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3194698"/>
+        <c:crossAx val="36709746"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1450,7 +1454,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1633,22 +1637,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16</c:v>
@@ -1662,11 +1666,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="68358877"/>
-        <c:axId val="20663031"/>
+        <c:axId val="4090729"/>
+        <c:axId val="92414132"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68358877"/>
+        <c:axId val="4090729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,14 +1698,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20663031"/>
+        <c:crossAx val="92414132"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20663031"/>
+        <c:axId val="92414132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1742,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68358877"/>
+        <c:crossAx val="4090729"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1778,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1789,7 +1793,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7875720" y="3165120"/>
-        <a:ext cx="6894720" cy="4051440"/>
+        <a:ext cx="6894360" cy="4051080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1813,9 +1817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>392760</xdr:colOff>
+      <xdr:colOff>392400</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1824,7 +1828,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2438640" y="3901320"/>
-        <a:ext cx="6894720" cy="4051800"/>
+        <a:ext cx="6894360" cy="4051440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1842,10 +1846,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V178"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C173" activeCellId="0" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1894,7 +1898,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -2040,7 +2044,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="10" t="n">
         <f aca="false">K4/SUM($K$2:$K$11)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>21</v>
@@ -2091,7 +2095,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
         <f aca="false">K5/SUM($K$2:$K$11)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>25</v>
@@ -2138,14 +2142,14 @@
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
         <f aca="false">K6/SUM($K$2:$K$11)</f>
-        <v>0.0184049079754601</v>
+        <v>0.0177514792899408</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="T6" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S6)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,14 +2189,14 @@
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
         <f aca="false">K7/SUM($K$2:$K$11)</f>
-        <v>0.0122699386503067</v>
+        <v>0.0118343195266272</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,12 +2230,12 @@
       </c>
       <c r="K8" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H8,$C$2:$C$200,"&lt;="&amp;I8)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
         <f aca="false">K8/SUM($K$2:$K$11)</f>
-        <v>0.116564417177914</v>
+        <v>0.124260355029586</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>28</v>
@@ -2273,12 +2277,12 @@
       </c>
       <c r="K9" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H9,$C$2:$C$200,"&lt;="&amp;I9)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
         <f aca="false">K9/SUM($K$2:$K$11)</f>
-        <v>0.312883435582822</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>15</v>
@@ -2324,12 +2328,12 @@
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H10,$C$2:$C$200,"&lt;="&amp;I10)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
         <f aca="false">K10/SUM($K$2:$K$11)</f>
-        <v>0.368098159509202</v>
+        <v>0.372781065088757</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>32</v>
@@ -2380,7 +2384,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
         <f aca="false">K11/SUM($K$2:$K$11)</f>
-        <v>0.159509202453988</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>26</v>
@@ -2476,7 +2480,7 @@
       </c>
       <c r="T14" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S14)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,7 +2510,7 @@
       </c>
       <c r="T15" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S15)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2597,7 @@
       </c>
       <c r="J18" s="30" t="n">
         <f aca="false">AVERAGE(C2:C202)</f>
-        <v>80.0429447852761</v>
+        <v>79.9230769230769</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>48</v>
@@ -2797,7 +2801,7 @@
       </c>
       <c r="T25" s="12" t="n">
         <f aca="false">COUNTIF($F$1:$F$200,S25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,30 +5617,134 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="22" t="n">
+        <v>43940</v>
+      </c>
       <c r="B172" s="0" t="n">
         <v>171</v>
       </c>
+      <c r="C172" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="22" t="n">
+        <v>43941</v>
+      </c>
       <c r="B173" s="0" t="n">
         <v>172</v>
       </c>
+      <c r="C173" s="23" t="n">
+        <v>90</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="22" t="n">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="C174" s="0" t="n">
-        <v>87</v>
+      <c r="C174" s="23" t="n">
+        <v>89</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="E174" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="22" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="22" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="C176" s="23" t="n">
+        <v>71</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="22" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C177" s="23" t="n">
+        <v>63</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="22" t="n">
+        <v>43941</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="C178" s="23" t="n">
+        <v>85</v>
+      </c>
+      <c r="D178" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E178" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F174" s="0" t="s">
-        <v>26</v>
+      <c r="F178" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5784,7 @@
       </c>
       <c r="L1" s="32" t="n">
         <f aca="true">TODAY()</f>
-        <v>43940</v>
+        <v>43941</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5694,7 +5802,7 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G2,10yr!$C$2:$C$200,"&lt;="&amp;H2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="50" t="n">
+      <c r="L2" s="51" t="n">
         <f aca="false">J2/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
@@ -5716,7 +5824,7 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G3,10yr!$C$2:$C$200,"&lt;="&amp;H3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="50" t="n">
+      <c r="L3" s="51" t="n">
         <f aca="false">J3/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
@@ -5738,7 +5846,7 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G4,10yr!$C$2:$C$200,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="50" t="n">
+      <c r="L4" s="51" t="n">
         <f aca="false">J4/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
@@ -5760,7 +5868,7 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G5,10yr!$C$2:$C$200,"&lt;="&amp;H5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="50" t="n">
+      <c r="L5" s="51" t="n">
         <f aca="false">J5/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
@@ -5782,7 +5890,7 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G6,10yr!$C$2:$C$200,"&lt;="&amp;H6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="50" t="n">
+      <c r="L6" s="51" t="n">
         <f aca="false">J6/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
@@ -5804,9 +5912,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G7,10yr!$C$2:$C$200,"&lt;="&amp;H7)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="50" t="n">
+      <c r="L7" s="51" t="n">
         <f aca="false">J7/SUM($J$2:$J$21)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5826,7 +5934,7 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G8,10yr!$C$2:$C$200,"&lt;="&amp;H8)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="50" t="n">
+      <c r="L8" s="51" t="n">
         <f aca="false">J8/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
@@ -5848,9 +5956,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G9,10yr!$C$2:$C$200,"&lt;="&amp;H9)</f>
         <v>1</v>
       </c>
-      <c r="L9" s="50" t="n">
+      <c r="L9" s="51" t="n">
         <f aca="false">J9/SUM($J$2:$J$21)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5870,9 +5978,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G10,10yr!$C$2:$C$200,"&lt;="&amp;H10)</f>
         <v>1</v>
       </c>
-      <c r="L10" s="50" t="n">
+      <c r="L10" s="51" t="n">
         <f aca="false">J10/SUM($J$2:$J$21)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,9 +6000,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G11,10yr!$C$2:$C$200,"&lt;="&amp;H11)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="50" t="n">
+      <c r="L11" s="51" t="n">
         <f aca="false">J11/SUM($J$2:$J$21)</f>
-        <v>0.0122699386503067</v>
+        <v>0.0118343195266272</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,9 +6022,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G12,10yr!$C$2:$C$200,"&lt;="&amp;H12)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="50" t="n">
+      <c r="L12" s="51" t="n">
         <f aca="false">J12/SUM($J$2:$J$21)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,9 +6044,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G13,10yr!$C$2:$C$200,"&lt;="&amp;H13)</f>
         <v>1</v>
       </c>
-      <c r="L13" s="50" t="n">
+      <c r="L13" s="51" t="n">
         <f aca="false">J13/SUM($J$2:$J$21)</f>
-        <v>0.00613496932515337</v>
+        <v>0.00591715976331361</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,11 +6064,11 @@
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G14,10yr!$C$2:$C$200,"&lt;="&amp;H14)</f>
-        <v>7</v>
-      </c>
-      <c r="L14" s="50" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" s="51" t="n">
         <f aca="false">J14/SUM($J$2:$J$21)</f>
-        <v>0.0429447852760736</v>
+        <v>0.0532544378698225</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,9 +6088,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G15,10yr!$C$2:$C$200,"&lt;="&amp;H15)</f>
         <v>12</v>
       </c>
-      <c r="L15" s="50" t="n">
+      <c r="L15" s="51" t="n">
         <f aca="false">J15/SUM($J$2:$J$21)</f>
-        <v>0.0736196319018405</v>
+        <v>0.0710059171597633</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,11 +6108,11 @@
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G16,10yr!$C$2:$C$200,"&lt;="&amp;H16)</f>
-        <v>23</v>
-      </c>
-      <c r="L16" s="50" t="n">
+        <v>24</v>
+      </c>
+      <c r="L16" s="51" t="n">
         <f aca="false">J16/SUM($J$2:$J$21)</f>
-        <v>0.141104294478528</v>
+        <v>0.142011834319527</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,9 +6132,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G17,10yr!$C$2:$C$200,"&lt;="&amp;H17)</f>
         <v>28</v>
       </c>
-      <c r="L17" s="50" t="n">
+      <c r="L17" s="51" t="n">
         <f aca="false">J17/SUM($J$2:$J$21)</f>
-        <v>0.171779141104294</v>
+        <v>0.165680473372781</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6044,11 +6152,11 @@
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G18,10yr!$C$2:$C$200,"&lt;="&amp;H18)</f>
-        <v>25</v>
-      </c>
-      <c r="L18" s="50" t="n">
+        <v>26</v>
+      </c>
+      <c r="L18" s="51" t="n">
         <f aca="false">J18/SUM($J$2:$J$21)</f>
-        <v>0.153374233128834</v>
+        <v>0.153846153846154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,11 +6174,11 @@
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G19,10yr!$C$2:$C$200,"&lt;="&amp;H19)</f>
-        <v>35</v>
-      </c>
-      <c r="L19" s="50" t="n">
+        <v>37</v>
+      </c>
+      <c r="L19" s="51" t="n">
         <f aca="false">J19/SUM($J$2:$J$21)</f>
-        <v>0.214723926380368</v>
+        <v>0.218934911242604</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,9 +6198,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G20,10yr!$C$2:$C$200,"&lt;="&amp;H20)</f>
         <v>16</v>
       </c>
-      <c r="L20" s="50" t="n">
+      <c r="L20" s="51" t="n">
         <f aca="false">J20/SUM($J$2:$J$21)</f>
-        <v>0.098159509202454</v>
+        <v>0.0946745562130178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,9 +6220,9 @@
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G21,10yr!$C$2:$C$200,"&lt;="&amp;H21)</f>
         <v>10</v>
       </c>
-      <c r="L21" s="50" t="n">
+      <c r="L21" s="51" t="n">
         <f aca="false">J21/SUM($J$2:$J$21)</f>
-        <v>0.0613496932515337</v>
+        <v>0.0591715976331361</v>
       </c>
     </row>
   </sheetData>
@@ -6152,7 +6260,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6929,7 +7037,7 @@
       <c r="B44" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="53" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="0" t="n">
@@ -6986,7 +7094,7 @@
       <c r="B47" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="53" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="0" t="n">
@@ -7023,7 +7131,7 @@
       <c r="B49" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="0" t="n">
@@ -7231,7 +7339,7 @@
       <c r="B60" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="0" t="n">
@@ -7251,7 +7359,7 @@
       <c r="B61" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C61" s="52" t="s">
+      <c r="C61" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D61" s="0" t="n">
@@ -7271,7 +7379,7 @@
       <c r="B62" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="53" t="s">
         <v>84</v>
       </c>
       <c r="D62" s="0" t="n">
@@ -7342,7 +7450,7 @@
       <c r="B66" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C66" s="52" t="s">
+      <c r="C66" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D66" s="0" t="n">
@@ -7396,7 +7504,7 @@
       <c r="B69" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C69" s="52" t="s">
+      <c r="C69" s="53" t="s">
         <v>88</v>
       </c>
       <c r="D69" s="0" t="n">
@@ -7467,7 +7575,7 @@
       <c r="B73" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D73" s="0" t="n">
@@ -7504,7 +7612,7 @@
       <c r="B75" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="53" t="s">
         <v>86</v>
       </c>
       <c r="D75" s="0" t="n">
@@ -7524,7 +7632,7 @@
       <c r="B76" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="53" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="0" t="n">
@@ -7612,7 +7720,7 @@
       <c r="B81" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D81" s="0" t="n">
@@ -7658,7 +7766,7 @@
       <c r="F83" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G83" s="52" t="s">
+      <c r="G83" s="53" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7740,7 +7848,7 @@
       <c r="B88" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C88" s="53" t="s">
         <v>93</v>
       </c>
       <c r="D88" s="0" t="n">
@@ -7760,7 +7868,7 @@
       <c r="B89" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C89" s="53" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="0" t="n">
@@ -7780,7 +7888,7 @@
       <c r="B90" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C90" s="53" t="s">
         <v>96</v>
       </c>
       <c r="D90" s="0" t="n">
@@ -7885,7 +7993,7 @@
       <c r="B96" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C96" s="53" t="s">
         <v>97</v>
       </c>
       <c r="D96" s="0" t="n">
@@ -7939,7 +8047,7 @@
       <c r="B99" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="53" t="s">
         <v>127</v>
       </c>
       <c r="D99" s="0" t="n">
@@ -7959,7 +8067,7 @@
       <c r="B100" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C100" s="52" t="s">
+      <c r="C100" s="53" t="s">
         <v>128</v>
       </c>
       <c r="D100" s="0" t="n">
@@ -7979,7 +8087,7 @@
       <c r="B101" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C101" s="52" t="s">
+      <c r="C101" s="53" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="0" t="n">
@@ -8050,7 +8158,7 @@
       <c r="B105" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C105" s="52" t="s">
+      <c r="C105" s="53" t="s">
         <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
@@ -8237,7 +8345,7 @@
       <c r="B116" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="C116" s="52" t="s">
+      <c r="C116" s="53" t="s">
         <v>129</v>
       </c>
       <c r="D116" s="0" t="n">

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="131">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">מחלה ממארת סופנית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ללא מחלות רקע</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ynet.co.il/articles/0,7340,L-5714462,00.html</t>
@@ -1197,7 +1200,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1326,10 +1329,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21</c:v>
@@ -1341,7 +1344,7 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,11 +1352,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="36709746"/>
-        <c:axId val="75579389"/>
+        <c:axId val="38553588"/>
+        <c:axId val="45577192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36709746"/>
+        <c:axId val="38553588"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,14 +1384,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75579389"/>
+        <c:crossAx val="45577192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75579389"/>
+        <c:axId val="45577192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,7 +1428,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36709746"/>
+        <c:crossAx val="38553588"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1454,7 +1457,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1628,13 +1631,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
@@ -1658,7 +1661,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,11 +1669,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="4090729"/>
-        <c:axId val="92414132"/>
+        <c:axId val="92286382"/>
+        <c:axId val="29048841"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4090729"/>
+        <c:axId val="92286382"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,14 +1701,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92414132"/>
+        <c:crossAx val="29048841"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92414132"/>
+        <c:axId val="29048841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4090729"/>
+        <c:crossAx val="92286382"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="1"/>
       </c:valAx>
@@ -1846,10 +1849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V178"/>
+  <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C173" activeCellId="0" sqref="C173"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F187" activeCellId="0" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1898,7 +1901,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>8</v>
@@ -1938,7 +1941,7 @@
         <v>0-10</v>
       </c>
       <c r="K2" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H2,$C$2:$C$200,"&lt;="&amp;I2)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H2,$C$2:$C$300,"&lt;="&amp;I2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="3"/>
@@ -1950,8 +1953,8 @@
         <v>13</v>
       </c>
       <c r="T2" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S2)</f>
-        <v>16</v>
+        <f aca="false">COUNTIF($F$1:$F$300,S2)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,7 +1990,7 @@
         <v>11-20</v>
       </c>
       <c r="K3" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H3,$C$2:$C$200,"&lt;="&amp;I3)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H3,$C$2:$C$300,"&lt;="&amp;I3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="3"/>
@@ -1999,7 +2002,7 @@
         <v>17</v>
       </c>
       <c r="T3" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S3)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S3)</f>
         <v>2</v>
       </c>
     </row>
@@ -2038,19 +2041,19 @@
         <v>21-30</v>
       </c>
       <c r="K4" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H4,$C$2:$C$200,"&lt;="&amp;I4)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H4,$C$2:$C$300,"&lt;="&amp;I4)</f>
         <v>1</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="10" t="n">
         <f aca="false">K4/SUM($K$2:$K$11)</f>
-        <v>0.00591715976331361</v>
+        <v>0.00581395348837209</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T4" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S4)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S4)</f>
         <v>0</v>
       </c>
     </row>
@@ -2089,19 +2092,19 @@
         <v>31-40</v>
       </c>
       <c r="K5" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H5,$C$2:$C$200,"&lt;="&amp;I5)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H5,$C$2:$C$300,"&lt;="&amp;I5)</f>
         <v>1</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="10" t="n">
         <f aca="false">K5/SUM($K$2:$K$11)</f>
-        <v>0.00591715976331361</v>
+        <v>0.00581395348837209</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>25</v>
       </c>
       <c r="T5" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S5)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S5)</f>
         <v>3</v>
       </c>
     </row>
@@ -2136,20 +2139,20 @@
         <v>41-50</v>
       </c>
       <c r="K6" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H6,$C$2:$C$200,"&lt;="&amp;I6)</f>
-        <v>3</v>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H6,$C$2:$C$300,"&lt;="&amp;I6)</f>
+        <v>4</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="10" t="n">
         <f aca="false">K6/SUM($K$2:$K$11)</f>
-        <v>0.0177514792899408</v>
+        <v>0.0232558139534884</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="T6" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S6)</f>
-        <v>17</v>
+        <f aca="false">COUNTIF($F$1:$F$300,S6)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,19 +2186,19 @@
         <v>51-60</v>
       </c>
       <c r="K7" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H7,$C$2:$C$200,"&lt;="&amp;I7)</f>
-        <v>2</v>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H7,$C$2:$C$300,"&lt;="&amp;I7)</f>
+        <v>3</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="10" t="n">
         <f aca="false">K7/SUM($K$2:$K$11)</f>
-        <v>0.0118343195266272</v>
+        <v>0.0174418604651163</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S7)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S7)</f>
         <v>5</v>
       </c>
     </row>
@@ -2229,19 +2232,19 @@
         <v>61-70</v>
       </c>
       <c r="K8" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H8,$C$2:$C$200,"&lt;="&amp;I8)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H8,$C$2:$C$300,"&lt;="&amp;I8)</f>
         <v>21</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="10" t="n">
         <f aca="false">K8/SUM($K$2:$K$11)</f>
-        <v>0.124260355029586</v>
+        <v>0.122093023255814</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S8)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S8)</f>
         <v>4</v>
       </c>
     </row>
@@ -2276,19 +2279,19 @@
         <v>71-80</v>
       </c>
       <c r="K9" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H9,$C$2:$C$200,"&lt;="&amp;I9)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H9,$C$2:$C$300,"&lt;="&amp;I9)</f>
         <v>52</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="10" t="n">
         <f aca="false">K9/SUM($K$2:$K$11)</f>
-        <v>0.307692307692308</v>
+        <v>0.302325581395349</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="T9" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S9)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S9)</f>
         <v>15</v>
       </c>
     </row>
@@ -2327,19 +2330,19 @@
         <v>81-90</v>
       </c>
       <c r="K10" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H10,$C$2:$C$200,"&lt;="&amp;I10)</f>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H10,$C$2:$C$300,"&lt;="&amp;I10)</f>
         <v>63</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="10" t="n">
         <f aca="false">K10/SUM($K$2:$K$11)</f>
-        <v>0.372781065088757</v>
+        <v>0.366279069767442</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S10)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S10)</f>
         <v>6</v>
       </c>
     </row>
@@ -2378,19 +2381,19 @@
         <v>91-100</v>
       </c>
       <c r="K11" s="3" t="n">
-        <f aca="false">COUNTIFS($C$2:$C$200,"&gt;="&amp;H11,$C$2:$C$200,"&lt;="&amp;I11)</f>
-        <v>26</v>
+        <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;H11,$C$2:$C$300,"&lt;="&amp;I11)</f>
+        <v>27</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="10" t="n">
         <f aca="false">K11/SUM($K$2:$K$11)</f>
-        <v>0.153846153846154</v>
+        <v>0.156976744186047</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="T11" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S11)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S11)</f>
         <v>10</v>
       </c>
     </row>
@@ -2420,7 +2423,7 @@
         <v>30</v>
       </c>
       <c r="T12" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S12)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S12)</f>
         <v>9</v>
       </c>
       <c r="U12" s="23"/>
@@ -2449,7 +2452,7 @@
         <v>37</v>
       </c>
       <c r="T13" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S13)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S13)</f>
         <v>4</v>
       </c>
     </row>
@@ -2479,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="T14" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S14)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S14)</f>
         <v>18</v>
       </c>
     </row>
@@ -2509,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="T15" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S15)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S15)</f>
         <v>7</v>
       </c>
     </row>
@@ -2537,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="T16" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S16)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S16)</f>
         <v>22</v>
       </c>
       <c r="U16" s="27"/>
@@ -2569,7 +2572,7 @@
         <v>34</v>
       </c>
       <c r="T17" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S17)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S17)</f>
         <v>5</v>
       </c>
     </row>
@@ -2596,14 +2599,14 @@
         <v>47</v>
       </c>
       <c r="J18" s="30" t="n">
-        <f aca="false">AVERAGE(C2:C202)</f>
-        <v>79.9230769230769</v>
+        <f aca="false">AVERAGE(C2:C300)</f>
+        <v>79.7267441860465</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>48</v>
       </c>
       <c r="T18" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S18)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S18)</f>
         <v>1</v>
       </c>
     </row>
@@ -2633,7 +2636,7 @@
         <v>50</v>
       </c>
       <c r="T19" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S19)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S19)</f>
         <v>5</v>
       </c>
     </row>
@@ -2663,8 +2666,8 @@
         <v>52</v>
       </c>
       <c r="T20" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S20)</f>
-        <v>1</v>
+        <f aca="false">COUNTIF($F$1:$F$300,S20)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2691,7 @@
         <v>53</v>
       </c>
       <c r="T21" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S21)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S21)</f>
         <v>1</v>
       </c>
     </row>
@@ -2716,7 +2719,7 @@
         <v>55</v>
       </c>
       <c r="T22" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S22)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S22)</f>
         <v>9</v>
       </c>
     </row>
@@ -2744,7 +2747,7 @@
         <v>56</v>
       </c>
       <c r="T23" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S23)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S23)</f>
         <v>2</v>
       </c>
     </row>
@@ -2772,7 +2775,7 @@
         <v>57</v>
       </c>
       <c r="T24" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S24)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S24)</f>
         <v>3</v>
       </c>
     </row>
@@ -2800,7 +2803,7 @@
         <v>59</v>
       </c>
       <c r="T25" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S25)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S25)</f>
         <v>3</v>
       </c>
     </row>
@@ -2828,7 +2831,7 @@
         <v>60</v>
       </c>
       <c r="T26" s="12" t="n">
-        <f aca="false">COUNTIF($F$1:$F$200,S26)</f>
+        <f aca="false">COUNTIF($F$1:$F$300,S26)</f>
         <v>1</v>
       </c>
     </row>
@@ -5745,6 +5748,76 @@
       </c>
       <c r="F178" s="0" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="22" t="n">
+        <v>43942</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="22" t="n">
+        <v>43942</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D180" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="22" t="n">
+        <v>43942</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="n">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5784,7 +5857,7 @@
       </c>
       <c r="L1" s="32" t="n">
         <f aca="true">TODAY()</f>
-        <v>43941</v>
+        <v>43942</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,7 +5987,7 @@
       </c>
       <c r="L7" s="51" t="n">
         <f aca="false">J7/SUM($J$2:$J$21)</f>
-        <v>0.00591715976331361</v>
+        <v>0.00581395348837209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5958,7 +6031,7 @@
       </c>
       <c r="L9" s="51" t="n">
         <f aca="false">J9/SUM($J$2:$J$21)</f>
-        <v>0.00591715976331361</v>
+        <v>0.00581395348837209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5980,7 +6053,7 @@
       </c>
       <c r="L10" s="51" t="n">
         <f aca="false">J10/SUM($J$2:$J$21)</f>
-        <v>0.00591715976331361</v>
+        <v>0.00581395348837209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5998,11 +6071,11 @@
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G11,10yr!$C$2:$C$200,"&lt;="&amp;H11)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="51" t="n">
         <f aca="false">J11/SUM($J$2:$J$21)</f>
-        <v>0.0118343195266272</v>
+        <v>0.0174418604651163</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,7 +6097,7 @@
       </c>
       <c r="L12" s="51" t="n">
         <f aca="false">J12/SUM($J$2:$J$21)</f>
-        <v>0.00591715976331361</v>
+        <v>0.00581395348837209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,11 +6115,11 @@
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G13,10yr!$C$2:$C$200,"&lt;="&amp;H13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="51" t="n">
         <f aca="false">J13/SUM($J$2:$J$21)</f>
-        <v>0.00591715976331361</v>
+        <v>0.0116279069767442</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,7 +6141,7 @@
       </c>
       <c r="L14" s="51" t="n">
         <f aca="false">J14/SUM($J$2:$J$21)</f>
-        <v>0.0532544378698225</v>
+        <v>0.0523255813953488</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,7 +6163,7 @@
       </c>
       <c r="L15" s="51" t="n">
         <f aca="false">J15/SUM($J$2:$J$21)</f>
-        <v>0.0710059171597633</v>
+        <v>0.0697674418604651</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,7 +6185,7 @@
       </c>
       <c r="L16" s="51" t="n">
         <f aca="false">J16/SUM($J$2:$J$21)</f>
-        <v>0.142011834319527</v>
+        <v>0.13953488372093</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,7 +6207,7 @@
       </c>
       <c r="L17" s="51" t="n">
         <f aca="false">J17/SUM($J$2:$J$21)</f>
-        <v>0.165680473372781</v>
+        <v>0.162790697674419</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,7 +6229,7 @@
       </c>
       <c r="L18" s="51" t="n">
         <f aca="false">J18/SUM($J$2:$J$21)</f>
-        <v>0.153846153846154</v>
+        <v>0.151162790697674</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,7 +6251,7 @@
       </c>
       <c r="L19" s="51" t="n">
         <f aca="false">J19/SUM($J$2:$J$21)</f>
-        <v>0.218934911242604</v>
+        <v>0.215116279069767</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,7 +6273,7 @@
       </c>
       <c r="L20" s="51" t="n">
         <f aca="false">J20/SUM($J$2:$J$21)</f>
-        <v>0.0946745562130178</v>
+        <v>0.0930232558139535</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,11 +6291,11 @@
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G21,10yr!$C$2:$C$200,"&lt;="&amp;H21)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" s="51" t="n">
         <f aca="false">J21/SUM($J$2:$J$21)</f>
-        <v>0.0591715976331361</v>
+        <v>0.063953488372093</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6334,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -6298,7 +6371,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6388,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>15</v>
@@ -6335,7 +6408,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6349,10 +6422,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6363,13 +6436,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>23</v>
@@ -6386,7 +6459,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>19</v>
@@ -6403,10 +6476,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,7 +6493,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>15</v>
@@ -6440,7 +6513,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>30</v>
@@ -6460,7 +6533,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>34</v>
@@ -6480,7 +6553,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>15</v>
@@ -6500,10 +6573,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6520,10 +6593,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6540,7 +6613,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>11</v>
@@ -6554,13 +6627,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>11</v>
@@ -6580,7 +6653,7 @@
         <v>91</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>52</v>
@@ -6600,7 +6673,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>23</v>
@@ -6620,10 +6693,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,7 +6710,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>15</v>
@@ -6657,10 +6730,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6674,7 +6747,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>30</v>
@@ -6691,7 +6764,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -6708,7 +6781,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>15</v>
@@ -6725,7 +6798,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>23</v>
@@ -6739,13 +6812,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>15</v>
@@ -6765,7 +6838,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>23</v>
@@ -6782,7 +6855,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>11</v>
@@ -6799,7 +6872,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>19</v>
@@ -6816,7 +6889,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>19</v>
@@ -6836,7 +6909,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>25</v>
@@ -6856,7 +6929,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>25</v>
@@ -6873,7 +6946,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>13</v>
@@ -6887,13 +6960,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>34</v>
@@ -6913,7 +6986,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>11</v>
@@ -6930,10 +7003,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6950,7 +7023,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>30</v>
@@ -6967,7 +7040,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>13</v>
@@ -6984,7 +7057,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>32</v>
@@ -7004,7 +7077,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>13</v>
@@ -7024,7 +7097,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>27</v>
@@ -7044,7 +7117,7 @@
         <v>76</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>25</v>
@@ -7061,7 +7134,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>30</v>
@@ -7081,7 +7154,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>13</v>
@@ -7101,10 +7174,10 @@
         <v>88</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7118,7 +7191,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>11</v>
@@ -7138,7 +7211,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>11</v>
@@ -7152,16 +7225,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7248,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>15</v>
@@ -7195,7 +7268,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>30</v>
@@ -7212,7 +7285,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>13</v>
@@ -7232,7 +7305,7 @@
         <v>77</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>11</v>
@@ -7252,10 +7325,10 @@
         <v>90</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,7 +7342,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>11</v>
@@ -7289,10 +7362,10 @@
         <v>66</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,10 +7382,10 @@
         <v>95</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7326,7 +7399,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>13</v>
@@ -7346,10 +7419,10 @@
         <v>80</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,7 +7439,7 @@
         <v>95</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>13</v>
@@ -7386,7 +7459,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>34</v>
@@ -7403,10 +7476,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7420,10 +7493,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,10 +7510,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,7 +7530,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>30</v>
@@ -7474,7 +7547,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>13</v>
@@ -7491,7 +7564,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>15</v>
@@ -7511,7 +7584,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>30</v>
@@ -7528,7 +7601,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>30</v>
@@ -7545,7 +7618,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>13</v>
@@ -7562,7 +7635,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>13</v>
@@ -7582,10 +7655,10 @@
         <v>85</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,7 +7672,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F74" s="11" t="s">
         <v>11</v>
@@ -7619,10 +7692,10 @@
         <v>67</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,7 +7712,7 @@
         <v>90</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>32</v>
@@ -7656,10 +7729,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,10 +7746,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7690,7 +7763,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>23</v>
@@ -7707,7 +7780,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>15</v>
@@ -7727,10 +7800,10 @@
         <v>84</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7744,7 +7817,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>55</v>
@@ -7761,13 +7834,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G83" s="53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,10 +7854,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,7 +7871,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>11</v>
@@ -7815,7 +7888,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>23</v>
@@ -7835,10 +7908,10 @@
         <v>87</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7855,7 +7928,7 @@
         <v>64</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>19</v>
@@ -7875,7 +7948,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>50</v>
@@ -7895,7 +7968,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>50</v>
@@ -7912,7 +7985,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>11</v>
@@ -7929,7 +8002,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>27</v>
@@ -7946,10 +8019,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +8036,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>19</v>
@@ -7980,7 +8053,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>23</v>
@@ -8000,7 +8073,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>19</v>
@@ -8017,7 +8090,7 @@
         <v>63</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>55</v>
@@ -8034,10 +8107,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,13 +8121,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>11</v>
@@ -8068,16 +8141,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,7 +8167,7 @@
         <v>78</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>19</v>
@@ -8111,7 +8184,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>13</v>
@@ -8128,7 +8201,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F103" s="11" t="s">
         <v>13</v>
@@ -8145,7 +8218,7 @@
         <v>80</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>55</v>
@@ -8165,7 +8238,7 @@
         <v>40</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,7 +8252,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F106" s="11" t="s">
         <v>50</v>
@@ -8196,7 +8269,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F107" s="11" t="s">
         <v>11</v>
@@ -8213,10 +8286,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8230,7 +8303,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>48</v>
@@ -8247,7 +8320,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>23</v>
@@ -8264,7 +8337,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>13</v>
@@ -8281,7 +8354,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>15</v>
@@ -8298,7 +8371,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>55</v>
@@ -8315,7 +8388,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F114" s="11" t="s">
         <v>11</v>
@@ -8332,7 +8405,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>19</v>
@@ -8346,13 +8419,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>30</v>
@@ -8372,10 +8445,10 @@
         <v>73</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis\Documents\covid19isr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D9386E-BEAB-4F51-A46B-ADB91FF97B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EB3B0F-F643-4C10-8997-98F8D32FB045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="1485" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10yr" sheetId="1" r:id="rId1"/>
     <sheet name="5yr" sheetId="2" r:id="rId2"/>
     <sheet name="ynet" sheetId="3" r:id="rId3"/>
+    <sheet name="hospitals" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="139">
   <si>
     <t>date</t>
   </si>
@@ -218,9 +219,6 @@
   </si>
   <si>
     <t>קפלן</t>
-  </si>
-  <si>
-    <t>קפלן רחובות</t>
   </si>
   <si>
     <t>תמרה פנחסוב</t>
@@ -688,6 +686,15 @@
   </si>
   <si>
     <t>perc</t>
+  </si>
+  <si>
+    <t>בת שבע ויטה</t>
+  </si>
+  <si>
+    <t>longtitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1298,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>64</c:v>
@@ -1450,7 +1457,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="ru-RU" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Количество смертей по возрастым группам</a:t>
@@ -1519,73 +1526,72 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'5yr'!$I$2:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6-10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11-15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>21-25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>26-30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>31-35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>36-40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>41-45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>46-50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>51-55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>56-60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>61-65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>66-70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>71-75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>76-80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>81-85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>86-90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>91-95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>96-100</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1639,7 +1645,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>27</c:v>
@@ -1753,7 +1759,6 @@
         <c:crossAx val="92286382"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2165,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W190"/>
+  <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2185,7 +2190,7 @@
     <col min="21" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:14">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -2208,10 +2213,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="50" t="s">
         <v>134</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>135</v>
       </c>
       <c r="K1" s="50" t="s">
         <v>2</v>
@@ -2220,17 +2225,11 @@
         <v>7</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N1" s="59"/>
-      <c r="T1" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="12">
         <v>43910</v>
       </c>
@@ -2266,18 +2265,11 @@
         <v>0</v>
       </c>
       <c r="M2" s="60">
-        <f>L2/SUM($L$2:$L$11)</f>
+        <f t="shared" ref="M2:M11" si="1">L2/SUM($L$2:$L$11)</f>
         <v>0</v>
       </c>
-      <c r="T2" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="49">
-        <f t="shared" ref="U2:U27" si="1">COUNTIF($F$1:$F$300,T2)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>43914</v>
       </c>
@@ -2315,18 +2307,11 @@
         <v>0</v>
       </c>
       <c r="M3" s="60">
-        <f>L3/SUM($L$2:$L$11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="49">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="12">
         <v>43914</v>
       </c>
@@ -2366,18 +2351,11 @@
         <v>1</v>
       </c>
       <c r="M4" s="60">
-        <f>L4/SUM($L$2:$L$11)</f>
-        <v>5.5865921787709499E-3</v>
-      </c>
-      <c r="T4" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>43915</v>
       </c>
@@ -2417,18 +2395,11 @@
         <v>1</v>
       </c>
       <c r="M5" s="60">
-        <f>L5/SUM($L$2:$L$11)</f>
-        <v>5.5865921787709499E-3</v>
-      </c>
-      <c r="T5" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="U5" s="49">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="12">
         <v>43915</v>
       </c>
@@ -2464,18 +2435,11 @@
         <v>4</v>
       </c>
       <c r="M6" s="60">
-        <f>L6/SUM($L$2:$L$11)</f>
-        <v>2.23463687150838E-2</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="49">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>43916</v>
       </c>
@@ -2511,18 +2475,11 @@
         <v>4</v>
       </c>
       <c r="M7" s="60">
-        <f>L7/SUM($L$2:$L$11)</f>
-        <v>2.23463687150838E-2</v>
-      </c>
-      <c r="T7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="49">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="17">
         <v>43916</v>
       </c>
@@ -2557,18 +2514,11 @@
         <v>21</v>
       </c>
       <c r="M8" s="60">
-        <f>L8/SUM($L$2:$L$11)</f>
-        <v>0.11731843575418995</v>
-      </c>
-      <c r="T8" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="49">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>0.11666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="12">
         <v>43916</v>
       </c>
@@ -2601,21 +2551,14 @@
       </c>
       <c r="L9" s="50">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="60">
-        <f>L9/SUM($L$2:$L$11)</f>
-        <v>0.3016759776536313</v>
-      </c>
-      <c r="T9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="U9" s="49">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>0.30555555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>43917</v>
       </c>
@@ -2655,18 +2598,11 @@
         <v>64</v>
       </c>
       <c r="M10" s="60">
-        <f>L10/SUM($L$2:$L$11)</f>
-        <v>0.35754189944134079</v>
-      </c>
-      <c r="T10" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="49">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>0.35555555555555557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="17">
         <v>43917</v>
       </c>
@@ -2706,18 +2642,11 @@
         <v>30</v>
       </c>
       <c r="M11" s="60">
-        <f>L11/SUM($L$2:$L$11)</f>
-        <v>0.16759776536312848</v>
-      </c>
-      <c r="T11" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="U11" s="49">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="17">
         <v>43917</v>
       </c>
@@ -2740,16 +2669,8 @@
         <v>38</v>
       </c>
       <c r="H12" s="52"/>
-      <c r="T12" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="49">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -2770,15 +2691,8 @@
         <v>39</v>
       </c>
       <c r="H13" s="52"/>
-      <c r="T13" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="49">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <v>43919</v>
       </c>
@@ -2801,15 +2715,8 @@
         <v>41</v>
       </c>
       <c r="H14" s="52"/>
-      <c r="T14" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="49">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="17">
         <v>43919</v>
       </c>
@@ -2832,15 +2739,8 @@
         <v>43</v>
       </c>
       <c r="H15" s="52"/>
-      <c r="T15" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" s="49">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>43919</v>
       </c>
@@ -2861,16 +2761,8 @@
         <v>45</v>
       </c>
       <c r="H16" s="52"/>
-      <c r="T16" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="U16" s="49">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="V16" s="22"/>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>43920</v>
       </c>
@@ -2894,15 +2786,8 @@
       <c r="K17" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="U17" s="49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="8">
         <v>43921</v>
       </c>
@@ -2927,17 +2812,10 @@
       <c r="H18" s="52"/>
       <c r="K18" s="62">
         <f>AVERAGE(C2:C300)</f>
-        <v>79.832402234636874</v>
-      </c>
-      <c r="T18" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>79.811111111111117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="17">
         <v>43921</v>
       </c>
@@ -2960,15 +2838,8 @@
         <v>49</v>
       </c>
       <c r="H19" s="52"/>
-      <c r="T19" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="U19" s="49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="17">
         <v>43921</v>
       </c>
@@ -2991,15 +2862,8 @@
         <v>51</v>
       </c>
       <c r="H20" s="52"/>
-      <c r="T20" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="U20" s="49">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="17">
         <v>43921</v>
       </c>
@@ -3017,15 +2881,8 @@
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="53"/>
-      <c r="T21" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="U21" s="49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="12">
         <v>43921</v>
       </c>
@@ -3043,18 +2900,11 @@
         <v>52</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="52"/>
-      <c r="T22" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="U22" s="49">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="8">
         <v>43922</v>
       </c>
@@ -3075,15 +2925,8 @@
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="52"/>
-      <c r="T23" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="U23" s="49">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="17">
         <v>43922</v>
       </c>
@@ -3104,15 +2947,8 @@
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="53"/>
-      <c r="T24" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="U24" s="49">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="17">
         <v>43922</v>
       </c>
@@ -3123,7 +2959,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -3133,15 +2969,8 @@
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="53"/>
-      <c r="T25" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="U25" s="49">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="17">
         <v>43922</v>
       </c>
@@ -3162,15 +2991,8 @@
       </c>
       <c r="G26" s="19"/>
       <c r="H26" s="53"/>
-      <c r="T26" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="U26" s="49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="17">
         <v>43922</v>
       </c>
@@ -3190,18 +3012,11 @@
         <v>23</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="52"/>
-      <c r="T27" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="U27" s="49">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="17">
         <v>43922</v>
       </c>
@@ -3220,7 +3035,7 @@
       <c r="G28" s="19"/>
       <c r="H28" s="53"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:11">
       <c r="A29" s="12">
         <v>43922</v>
       </c>
@@ -3242,7 +3057,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="52"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:11">
       <c r="A30" s="8">
         <v>43923</v>
       </c>
@@ -3262,11 +3077,11 @@
         <v>25</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="52"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:11">
       <c r="A31" s="17">
         <v>43923</v>
       </c>
@@ -3286,11 +3101,11 @@
         <v>25</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="52"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:11">
       <c r="A32" s="17">
         <v>43923</v>
       </c>
@@ -3307,7 +3122,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="52"/>
     </row>
@@ -3344,7 +3159,7 @@
         <v>77</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
@@ -3438,7 +3253,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="52"/>
     </row>
@@ -3462,7 +3277,7 @@
         <v>34</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" s="52"/>
     </row>
@@ -3508,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" s="52"/>
     </row>
@@ -3551,7 +3366,7 @@
         <v>13</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="52"/>
     </row>
@@ -3575,7 +3390,7 @@
         <v>44</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H44" s="52"/>
     </row>
@@ -3618,7 +3433,7 @@
         <v>25</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H46" s="52"/>
     </row>
@@ -3633,7 +3448,7 @@
         <v>88</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>14</v>
@@ -3642,7 +3457,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" s="52"/>
     </row>
@@ -3666,7 +3481,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H48" s="52"/>
     </row>
@@ -3690,7 +3505,7 @@
         <v>30</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H49" s="52"/>
     </row>
@@ -3727,7 +3542,7 @@
         <v>98</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>14</v>
@@ -3758,7 +3573,7 @@
         <v>44</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H52" s="54"/>
     </row>
@@ -3773,7 +3588,7 @@
         <v>80</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
@@ -3782,7 +3597,7 @@
         <v>44</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H53" s="54"/>
     </row>
@@ -3803,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H54" s="54"/>
     </row>
@@ -3818,7 +3633,7 @@
         <v>77</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -3827,7 +3642,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="54"/>
       <c r="K55" s="25"/>
@@ -3906,10 +3721,10 @@
         <v>14</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H59" s="54"/>
     </row>
@@ -3973,7 +3788,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" s="54"/>
     </row>
@@ -4014,7 +3829,7 @@
         <v>34</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H64" s="54"/>
     </row>
@@ -4029,7 +3844,7 @@
         <v>95</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4053,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -4076,7 +3891,7 @@
         <v>30</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H67" s="54"/>
     </row>
@@ -4118,7 +3933,7 @@
         <v>37</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H69" s="52"/>
     </row>
@@ -4186,7 +4001,7 @@
         <v>28</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H72" s="52"/>
     </row>
@@ -4201,7 +4016,7 @@
         <v>90</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4254,7 +4069,7 @@
         <v>30</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" s="55"/>
       <c r="W75" s="38"/>
@@ -4276,7 +4091,7 @@
         <v>19</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H76" s="52"/>
       <c r="W76" s="38"/>
@@ -4298,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G77" s="19"/>
       <c r="H77" s="53"/>
@@ -4357,13 +4172,13 @@
         <v>89</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G80" s="19"/>
       <c r="H80" s="53"/>
@@ -4385,7 +4200,7 @@
         <v>32</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H81" s="52"/>
     </row>
@@ -4460,10 +4275,10 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G85" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="56"/>
     </row>
@@ -4520,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4557,7 +4372,7 @@
         <v>19</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" s="56"/>
     </row>
@@ -4592,10 +4407,10 @@
         <v>14</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H92" s="52"/>
     </row>
@@ -4610,7 +4425,7 @@
         <v>86</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -4630,7 +4445,7 @@
         <v>84</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -4659,7 +4474,7 @@
         <v>50</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H95" s="56"/>
     </row>
@@ -4674,7 +4489,7 @@
         <v>64</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -4700,7 +4515,7 @@
         <v>50</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H97" s="54"/>
     </row>
@@ -4752,7 +4567,7 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4786,7 +4601,7 @@
         <v>79</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -4812,7 +4627,7 @@
         <v>19</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H103" s="54"/>
     </row>
@@ -4830,7 +4645,7 @@
         <v>10</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4856,7 +4671,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H106" s="52"/>
     </row>
@@ -4898,7 +4713,7 @@
         <v>37</v>
       </c>
       <c r="G108" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H108" s="52"/>
     </row>
@@ -4913,13 +4728,13 @@
         <v>80</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4933,7 +4748,7 @@
         <v>78</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -4942,7 +4757,7 @@
         <v>19</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H110" s="54"/>
     </row>
@@ -5008,10 +4823,10 @@
         <v>14</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H114" s="56"/>
     </row>
@@ -5046,7 +4861,7 @@
         <v>85</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -5089,7 +4904,7 @@
         <v>14</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5174,7 +4989,7 @@
         <v>14</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5188,7 +5003,7 @@
         <v>90</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
@@ -5208,7 +5023,7 @@
         <v>78</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
@@ -5294,10 +5109,10 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
+        <v>100</v>
+      </c>
+      <c r="G129" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="G129" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="H129" s="56"/>
     </row>
@@ -5449,7 +5264,7 @@
         <v>73</v>
       </c>
       <c r="D137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
@@ -5512,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5643,7 +5458,7 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5680,7 +5495,7 @@
         <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5694,7 +5509,7 @@
         <v>70</v>
       </c>
       <c r="D150" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -5773,13 +5588,13 @@
         <v>77</v>
       </c>
       <c r="D155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5798,7 +5613,7 @@
         <v>85</v>
       </c>
       <c r="D157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -5818,7 +5633,7 @@
         <v>82</v>
       </c>
       <c r="D158" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
@@ -5838,7 +5653,7 @@
         <v>87</v>
       </c>
       <c r="D159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
@@ -5933,7 +5748,7 @@
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5981,7 +5796,7 @@
         <v>29</v>
       </c>
       <c r="D169" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
@@ -6004,7 +5819,7 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6055,7 +5870,7 @@
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6166,7 +5981,7 @@
         <v>48</v>
       </c>
       <c r="D179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -6229,7 +6044,7 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6259,7 +6074,7 @@
         <v>95</v>
       </c>
       <c r="D185" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -6322,7 +6137,7 @@
         <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6339,7 +6154,10 @@
         <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="G189" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6356,17 +6174,37 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="17">
+        <v>43944</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <v>76</v>
+      </c>
+      <c r="D191" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6374,8 +6212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6402,435 +6240,435 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" t="e">
-        <f t="shared" ref="I2:I21" ca="1" si="0">_xlfn.CONCAT(G2,"-",H2)</f>
-        <v>#NAME?</v>
+      <c r="I2" t="str">
+        <f>CONCATENATE(G2,"-",H2)</f>
+        <v>0-5</v>
       </c>
       <c r="J2">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G2,'10yr'!$C$2:$C$200,"&lt;="&amp;H2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="44">
-        <f t="shared" ref="L2:L21" si="1">J2/SUM($J$2:$J$21)</f>
+        <f t="shared" ref="L2:L21" si="0">J2/SUM($J$2:$J$21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="7:12">
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="2">H2+1</f>
+        <f t="shared" ref="G3:G21" si="1">H2+1</f>
         <v>6</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H21" si="3">G3+4</f>
-        <v>10</v>
-      </c>
-      <c r="I3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <f t="shared" ref="H3:H21" si="2">G3+4</f>
+        <v>10</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="3">CONCATENATE(G3,"-",H3)</f>
+        <v>6-10</v>
       </c>
       <c r="J3">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G3,'10yr'!$C$2:$C$200,"&lt;="&amp;H3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="7:12">
       <c r="G4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>11-15</v>
       </c>
       <c r="J4">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G4,'10yr'!$C$2:$C$200,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="7:12">
       <c r="G5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>16-20</v>
       </c>
       <c r="J5">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G5,'10yr'!$C$2:$C$200,"&lt;="&amp;H5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="7:12">
       <c r="G6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="I6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>21-25</v>
       </c>
       <c r="J6">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G6,'10yr'!$C$2:$C$200,"&lt;="&amp;H6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="7:12">
       <c r="G7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="I7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>26-30</v>
       </c>
       <c r="J7">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G7,'10yr'!$C$2:$C$200,"&lt;="&amp;H7)</f>
         <v>1</v>
       </c>
       <c r="L7" s="44">
-        <f t="shared" si="1"/>
-        <v>5.5865921787709499E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="8" spans="7:12">
       <c r="G8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="I8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>31-35</v>
       </c>
       <c r="J8">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G8,'10yr'!$C$2:$C$200,"&lt;="&amp;H8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="7:12">
       <c r="G9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>36-40</v>
       </c>
       <c r="J9">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G9,'10yr'!$C$2:$C$200,"&lt;="&amp;H9)</f>
         <v>1</v>
       </c>
       <c r="L9" s="44">
-        <f t="shared" si="1"/>
-        <v>5.5865921787709499E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="10" spans="7:12">
       <c r="G10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="I10" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>41-45</v>
       </c>
       <c r="J10">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G10,'10yr'!$C$2:$C$200,"&lt;="&amp;H10)</f>
         <v>1</v>
       </c>
       <c r="L10" s="44">
-        <f t="shared" si="1"/>
-        <v>5.5865921787709499E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.5555555555555558E-3</v>
       </c>
     </row>
     <row r="11" spans="7:12">
       <c r="G11">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="I11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>46-50</v>
       </c>
       <c r="J11">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G11,'10yr'!$C$2:$C$200,"&lt;="&amp;H11)</f>
         <v>3</v>
       </c>
       <c r="L11" s="44">
-        <f t="shared" si="1"/>
-        <v>1.6759776536312849E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="12" spans="7:12">
       <c r="G12">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="H12">
+        <v>55</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="I12" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>51-55</v>
       </c>
       <c r="J12">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G12,'10yr'!$C$2:$C$200,"&lt;="&amp;H12)</f>
         <v>2</v>
       </c>
       <c r="L12" s="44">
-        <f t="shared" si="1"/>
-        <v>1.11731843575419E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="13" spans="7:12">
       <c r="G13">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="H13">
+        <v>60</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="I13" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>56-60</v>
       </c>
       <c r="J13">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G13,'10yr'!$C$2:$C$200,"&lt;="&amp;H13)</f>
         <v>2</v>
       </c>
       <c r="L13" s="44">
-        <f t="shared" si="1"/>
-        <v>1.11731843575419E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="14" spans="7:12">
       <c r="G14">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="H14">
+        <v>65</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="I14" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>61-65</v>
       </c>
       <c r="J14">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G14,'10yr'!$C$2:$C$200,"&lt;="&amp;H14)</f>
         <v>9</v>
       </c>
       <c r="L14" s="44">
-        <f t="shared" si="1"/>
-        <v>5.027932960893855E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="7:12">
       <c r="G15">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="H15">
+        <v>70</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="I15" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>66-70</v>
       </c>
       <c r="J15">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G15,'10yr'!$C$2:$C$200,"&lt;="&amp;H15)</f>
         <v>12</v>
       </c>
       <c r="L15" s="44">
-        <f t="shared" si="1"/>
-        <v>6.7039106145251395E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="16" spans="7:12">
       <c r="G16">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="H16">
+        <v>75</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="I16" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>71-75</v>
       </c>
       <c r="J16">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G16,'10yr'!$C$2:$C$200,"&lt;="&amp;H16)</f>
         <v>25</v>
       </c>
       <c r="L16" s="44">
-        <f t="shared" si="1"/>
-        <v>0.13966480446927373</v>
+        <f t="shared" si="0"/>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="17" spans="7:12">
       <c r="G17">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="I17" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>76-80</v>
       </c>
       <c r="J17">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G17,'10yr'!$C$2:$C$200,"&lt;="&amp;H17)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="44">
-        <f t="shared" si="1"/>
-        <v>0.16201117318435754</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="18" spans="7:12">
       <c r="G18">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="H18">
+        <v>85</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="I18" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>81-85</v>
       </c>
       <c r="J18">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G18,'10yr'!$C$2:$C$200,"&lt;="&amp;H18)</f>
         <v>27</v>
       </c>
       <c r="L18" s="44">
-        <f t="shared" si="1"/>
-        <v>0.15083798882681565</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="7:12">
       <c r="G19">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="I19" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>86-90</v>
       </c>
       <c r="J19">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G19,'10yr'!$C$2:$C$200,"&lt;="&amp;H19)</f>
         <v>37</v>
       </c>
       <c r="L19" s="44">
-        <f t="shared" si="1"/>
-        <v>0.20670391061452514</v>
+        <f t="shared" si="0"/>
+        <v>0.20555555555555555</v>
       </c>
     </row>
     <row r="20" spans="7:12">
       <c r="G20">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="H20">
+        <v>95</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
-        <v>95</v>
-      </c>
-      <c r="I20" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>91-95</v>
       </c>
       <c r="J20">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G20,'10yr'!$C$2:$C$200,"&lt;="&amp;H20)</f>
         <v>18</v>
       </c>
       <c r="L20" s="44">
-        <f t="shared" si="1"/>
-        <v>0.1005586592178771</v>
+        <f t="shared" si="0"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="7:12">
       <c r="G21">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="I21" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <v>96-100</v>
       </c>
       <c r="J21">
         <f>COUNTIFS('10yr'!$C$2:$C$200,"&gt;="&amp;G21,'10yr'!$C$2:$C$200,"&lt;="&amp;H21)</f>
         <v>12</v>
       </c>
       <c r="L21" s="44">
-        <f t="shared" si="1"/>
-        <v>6.7039106145251395E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6703,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="51">
       <c r="A1" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6873,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -6902,7 +6740,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6919,7 +6757,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
@@ -6939,7 +6777,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6953,10 +6791,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6967,13 +6805,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>76</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
@@ -6990,7 +6828,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>19</v>
@@ -7007,10 +6845,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7024,7 +6862,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
@@ -7044,7 +6882,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>30</v>
@@ -7064,7 +6902,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>34</v>
@@ -7084,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
@@ -7104,10 +6942,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7124,10 +6962,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7144,7 +6982,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -7158,13 +6996,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>84</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
@@ -7178,13 +7016,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>91</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>52</v>
@@ -7204,7 +7042,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
@@ -7224,10 +7062,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7241,7 +7079,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -7261,10 +7099,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7278,7 +7116,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>30</v>
@@ -7295,7 +7133,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -7312,7 +7150,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
@@ -7329,7 +7167,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>23</v>
@@ -7343,13 +7181,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28">
         <v>66</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
@@ -7363,13 +7201,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>66</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>23</v>
@@ -7386,7 +7224,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
@@ -7403,7 +7241,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>19</v>
@@ -7420,7 +7258,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>19</v>
@@ -7434,13 +7272,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>77</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>25</v>
@@ -7454,13 +7292,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>77</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>25</v>
@@ -7477,7 +7315,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>13</v>
@@ -7491,13 +7329,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36">
         <v>90</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>34</v>
@@ -7511,13 +7349,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37">
         <v>84</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
@@ -7534,10 +7372,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7548,13 +7386,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D39">
         <v>87</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>30</v>
@@ -7571,7 +7409,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>13</v>
@@ -7588,7 +7426,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>32</v>
@@ -7602,13 +7440,13 @@
         <v>39</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <v>70</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>13</v>
@@ -7622,13 +7460,13 @@
         <v>40</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43">
         <v>75</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>27</v>
@@ -7642,13 +7480,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>76</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>25</v>
@@ -7665,7 +7503,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>30</v>
@@ -7679,13 +7517,13 @@
         <v>43</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <v>88</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>13</v>
@@ -7699,16 +7537,16 @@
         <v>44</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47">
         <v>88</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7722,7 +7560,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -7736,13 +7574,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49">
         <v>63</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -7756,16 +7594,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50">
         <v>86</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7779,7 +7617,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>15</v>
@@ -7793,13 +7631,13 @@
         <v>49</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52">
         <v>84</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>30</v>
@@ -7816,7 +7654,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>13</v>
@@ -7830,13 +7668,13 @@
         <v>51</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54">
         <v>77</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -7850,16 +7688,16 @@
         <v>52</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55">
         <v>90</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7873,7 +7711,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -7887,16 +7725,16 @@
         <v>54</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57">
         <v>66</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7907,16 +7745,16 @@
         <v>55</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D58">
         <v>95</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7930,7 +7768,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>13</v>
@@ -7944,16 +7782,16 @@
         <v>57</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60">
         <v>80</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7964,13 +7802,13 @@
         <v>58</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D61">
         <v>95</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>13</v>
@@ -7984,13 +7822,13 @@
         <v>59</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62">
         <v>37</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>34</v>
@@ -8007,10 +7845,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8024,10 +7862,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8041,10 +7879,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8055,13 +7893,13 @@
         <v>63</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66">
         <v>97</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>30</v>
@@ -8078,7 +7916,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>13</v>
@@ -8095,7 +7933,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>15</v>
@@ -8109,13 +7947,13 @@
         <v>66</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69">
         <v>96</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>30</v>
@@ -8132,7 +7970,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>30</v>
@@ -8149,7 +7987,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>13</v>
@@ -8166,7 +8004,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>13</v>
@@ -8180,16 +8018,16 @@
         <v>70</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73">
         <v>85</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8203,7 +8041,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>11</v>
@@ -8217,16 +8055,16 @@
         <v>72</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75">
         <v>67</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8237,13 +8075,13 @@
         <v>73</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>90</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>32</v>
@@ -8260,10 +8098,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8277,10 +8115,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8294,7 +8132,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>23</v>
@@ -8311,7 +8149,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>15</v>
@@ -8325,16 +8163,16 @@
         <v>78</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81">
         <v>84</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -8348,10 +8186,10 @@
         <v>89</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -8365,13 +8203,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G83" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -8385,10 +8223,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -8402,7 +8240,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>11</v>
@@ -8419,7 +8257,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>23</v>
@@ -8433,16 +8271,16 @@
         <v>84</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>87</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -8453,13 +8291,13 @@
         <v>85</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88">
         <v>64</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>19</v>
@@ -8473,13 +8311,13 @@
         <v>86</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89">
         <v>78</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>50</v>
@@ -8493,13 +8331,13 @@
         <v>87</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D90">
         <v>82</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>50</v>
@@ -8516,7 +8354,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>11</v>
@@ -8533,7 +8371,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>27</v>
@@ -8550,10 +8388,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8567,7 +8405,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>19</v>
@@ -8584,7 +8422,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>23</v>
@@ -8598,13 +8436,13 @@
         <v>93</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D96">
         <v>53</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>19</v>
@@ -8621,10 +8459,10 @@
         <v>63</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8638,10 +8476,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8652,13 +8490,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D99">
         <v>79</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>11</v>
@@ -8672,16 +8510,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -8692,13 +8530,13 @@
         <v>98</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D101">
         <v>78</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>19</v>
@@ -8715,7 +8553,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>13</v>
@@ -8732,7 +8570,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>13</v>
@@ -8749,10 +8587,10 @@
         <v>80</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -8763,13 +8601,13 @@
         <v>102</v>
       </c>
       <c r="C105" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D105">
         <v>40</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -8783,7 +8621,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>50</v>
@@ -8800,7 +8638,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>11</v>
@@ -8817,10 +8655,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -8834,7 +8672,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>48</v>
@@ -8851,7 +8689,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>23</v>
@@ -8868,7 +8706,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>13</v>
@@ -8885,7 +8723,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>15</v>
@@ -8902,10 +8740,10 @@
         <v>71</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -8919,7 +8757,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>11</v>
@@ -8936,7 +8774,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>19</v>
@@ -8950,13 +8788,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D116">
         <v>82</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>30</v>
@@ -8970,16 +8808,16 @@
         <v>114</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D117">
         <v>73</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9129,4 +8967,411 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DD886-0327-44C4-956A-351B4E9C68F7}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A2)</f>
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>32.080367000000003</v>
+      </c>
+      <c r="D2">
+        <v>34.790143999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>31.779046000000001</v>
+      </c>
+      <c r="D3">
+        <v>34.656897000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>32.089302000000004</v>
+      </c>
+      <c r="D4">
+        <v>34.866619999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A5)</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>31.662534000000001</v>
+      </c>
+      <c r="D5">
+        <v>34.559545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A6)</f>
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>31.764911999999999</v>
+      </c>
+      <c r="D6">
+        <v>35.149611999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A7)</f>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>32.451450999999999</v>
+      </c>
+      <c r="D7">
+        <v>34.895947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A8)</f>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>32.621091999999997</v>
+      </c>
+      <c r="D8">
+        <v>35.316761999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A9)</f>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>32.035321000000003</v>
+      </c>
+      <c r="D9">
+        <v>34.762053000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A10)</f>
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>32.182386999999999</v>
+      </c>
+      <c r="D10">
+        <v>34.895615999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A11)</f>
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>32.084935999999999</v>
+      </c>
+      <c r="D11">
+        <v>34.844137000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A12)</f>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>31.259087000000001</v>
+      </c>
+      <c r="D12">
+        <v>34.801893999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A13)</f>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>32.832977999999997</v>
+      </c>
+      <c r="D13">
+        <v>34.985835000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A14)</f>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>32.046719000000003</v>
+      </c>
+      <c r="D14">
+        <v>34.842990999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A15)</f>
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>31.966152999999998</v>
+      </c>
+      <c r="D15">
+        <v>34.83916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A16)</f>
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>31.773156</v>
+      </c>
+      <c r="D16">
+        <v>35.185318000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A17)</f>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>32.079410000000003</v>
+      </c>
+      <c r="D17">
+        <v>34.881759000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A18)</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>32.954192999999997</v>
+      </c>
+      <c r="D18">
+        <v>35.492764000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A19)</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>32.345587999999999</v>
+      </c>
+      <c r="D19">
+        <v>34.855981999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A20)</f>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>31.873035999999999</v>
+      </c>
+      <c r="D20">
+        <v>34.814439999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A21)</f>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>32.752341999999999</v>
+      </c>
+      <c r="D21">
+        <v>35.539546000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A22)</f>
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>32.295668999999997</v>
+      </c>
+      <c r="D22">
+        <v>34.859389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A23)</f>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>32.047831000000002</v>
+      </c>
+      <c r="D23">
+        <v>34.753089000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A24)</f>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>32.485508000000003</v>
+      </c>
+      <c r="D24">
+        <v>34.969892000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A25)</f>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>32.786436000000002</v>
+      </c>
+      <c r="D25">
+        <v>34.980910000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$300,A26)</f>
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>32.049712999999997</v>
+      </c>
+      <c r="D26">
+        <v>34.849843999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="148">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t xml:space="preserve">סוזי לוי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סימה מיארה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בעיות רקע רבות</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ynet.co.il/articles/0,7340,L-5714462,00.html</t>
@@ -1301,7 +1307,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1442,16 +1448,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,11 +1465,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="20624115"/>
-        <c:axId val="58413352"/>
+        <c:axId val="64204493"/>
+        <c:axId val="80275216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20624115"/>
+        <c:axId val="64204493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,14 +1501,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58413352"/>
+        <c:crossAx val="80275216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58413352"/>
+        <c:axId val="80275216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1550,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20624115"/>
+        <c:crossAx val="64204493"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1572,7 +1578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1790,11 +1796,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="50919981"/>
-        <c:axId val="95546745"/>
+        <c:axId val="8694642"/>
+        <c:axId val="2604813"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50919981"/>
+        <c:axId val="8694642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,14 +1832,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95546745"/>
+        <c:crossAx val="2604813"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95546745"/>
+        <c:axId val="2604813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1881,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50919981"/>
+        <c:crossAx val="8694642"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1914,9 +1920,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>55080</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1924,8 +1930,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8742960" y="3099960"/>
-        <a:ext cx="6928560" cy="4008600"/>
+        <a:off x="8125920" y="3099960"/>
+        <a:ext cx="5080320" cy="4006800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1949,9 +1955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>392040</xdr:colOff>
+      <xdr:colOff>390240</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1959,8 +1965,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2450160" y="3886200"/>
-        <a:ext cx="6924240" cy="4035960"/>
+        <a:off x="1834560" y="3886200"/>
+        <a:ext cx="5281920" cy="4034160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1978,20 +1984,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W205"/>
+  <dimension ref="A1:W239"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E184" activeCellId="0" sqref="E184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,7 +2166,7 @@
       </c>
       <c r="M4" s="11" t="n">
         <f aca="false">L4/SUM($L$2:$L$11)</f>
-        <v>0.00529100529100529</v>
+        <v>0.0050251256281407</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2210,7 @@
       </c>
       <c r="M5" s="11" t="n">
         <f aca="false">L5/SUM($L$2:$L$11)</f>
-        <v>0.00529100529100529</v>
+        <v>0.0050251256281407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,7 +2250,7 @@
       </c>
       <c r="M6" s="11" t="n">
         <f aca="false">L6/SUM($L$2:$L$11)</f>
-        <v>0.0211640211640212</v>
+        <v>0.0201005025125628</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,7 +2290,7 @@
       </c>
       <c r="M7" s="11" t="n">
         <f aca="false">L7/SUM($L$2:$L$11)</f>
-        <v>0.0317460317460317</v>
+        <v>0.0301507537688442</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,11 +2325,11 @@
       </c>
       <c r="L8" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I8,$C$2:$C$300,"&lt;="&amp;J8)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8" s="11" t="n">
         <f aca="false">L8/SUM($L$2:$L$11)</f>
-        <v>0.116402116402116</v>
+        <v>0.115577889447236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2355,11 +2365,11 @@
       </c>
       <c r="L9" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I9,$C$2:$C$300,"&lt;="&amp;J9)</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M9" s="11" t="n">
         <f aca="false">L9/SUM($L$2:$L$11)</f>
-        <v>0.291005291005291</v>
+        <v>0.296482412060301</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,11 +2409,11 @@
       </c>
       <c r="L10" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I10,$C$2:$C$300,"&lt;="&amp;J10)</f>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M10" s="11" t="n">
         <f aca="false">L10/SUM($L$2:$L$11)</f>
-        <v>0.37037037037037</v>
+        <v>0.366834170854271</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,11 +2453,11 @@
       </c>
       <c r="L11" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I11,$C$2:$C$300,"&lt;="&amp;J11)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M11" s="11" t="n">
         <f aca="false">L11/SUM($L$2:$L$11)</f>
-        <v>0.158730158730159</v>
+        <v>0.160804020100503</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,7 +2626,7 @@
       <c r="H18" s="27"/>
       <c r="K18" s="33" t="n">
         <f aca="false">AVERAGE(C2:C300)</f>
-        <v>79.7089947089947</v>
+        <v>79.8391959798995</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,7 +6181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="n">
         <v>43948</v>
       </c>
@@ -6188,7 +6198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="n">
         <v>43948</v>
       </c>
@@ -6208,6 +6218,319 @@
         <v>23</v>
       </c>
     </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="21" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="21" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="21" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="21" t="n">
+        <v>43950</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="0" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="21" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="21"/>
+      <c r="B225" s="0" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="21"/>
+      <c r="B226" s="0" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0"/>
+      <c r="B227" s="0" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="0" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="21" t="n">
+        <v>43953</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="21" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="21" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="21" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="0" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="0" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="21" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -6232,6 +6555,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1" s="0" t="s">
@@ -6242,7 +6568,7 @@
       </c>
       <c r="L1" s="37" t="n">
         <f aca="true">TODAY()</f>
-        <v>43949</v>
+        <v>43956</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,14 +7035,17 @@
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6724,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -6753,7 +7082,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,7 +7099,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>15</v>
@@ -6790,7 +7119,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6804,10 +7133,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,13 +7147,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>21</v>
@@ -6841,7 +7170,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>18</v>
@@ -6858,10 +7187,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6875,7 +7204,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -6895,7 +7224,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>25</v>
@@ -6915,7 +7244,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>28</v>
@@ -6935,7 +7264,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>15</v>
@@ -6955,10 +7284,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,10 +7304,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,7 +7324,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>12</v>
@@ -7009,13 +7338,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>12</v>
@@ -7035,7 +7364,7 @@
         <v>91</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>45</v>
@@ -7055,7 +7384,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>21</v>
@@ -7075,10 +7404,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7092,7 +7421,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>15</v>
@@ -7112,10 +7441,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7129,7 +7458,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>25</v>
@@ -7146,7 +7475,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>12</v>
@@ -7163,7 +7492,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>15</v>
@@ -7180,7 +7509,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>21</v>
@@ -7194,13 +7523,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>15</v>
@@ -7220,7 +7549,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>21</v>
@@ -7237,7 +7566,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>12</v>
@@ -7254,7 +7583,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>18</v>
@@ -7271,7 +7600,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>18</v>
@@ -7291,7 +7620,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>49</v>
@@ -7311,7 +7640,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>49</v>
@@ -7328,7 +7657,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>53</v>
@@ -7342,13 +7671,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>28</v>
@@ -7368,7 +7697,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>12</v>
@@ -7385,10 +7714,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +7734,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>25</v>
@@ -7422,7 +7751,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>53</v>
@@ -7439,7 +7768,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>60</v>
@@ -7459,7 +7788,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>53</v>
@@ -7479,7 +7808,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>58</v>
@@ -7499,7 +7828,7 @@
         <v>76</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>49</v>
@@ -7516,7 +7845,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>25</v>
@@ -7536,7 +7865,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>53</v>
@@ -7556,10 +7885,10 @@
         <v>88</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +7902,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>12</v>
@@ -7593,7 +7922,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>12</v>
@@ -7607,16 +7936,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,7 +7959,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>15</v>
@@ -7650,7 +7979,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>25</v>
@@ -7667,7 +7996,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>53</v>
@@ -7687,7 +8016,7 @@
         <v>77</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>12</v>
@@ -7707,10 +8036,10 @@
         <v>90</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7724,7 +8053,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>12</v>
@@ -7744,10 +8073,10 @@
         <v>66</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7764,10 +8093,10 @@
         <v>95</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,7 +8110,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>53</v>
@@ -7801,10 +8130,10 @@
         <v>80</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,7 +8150,7 @@
         <v>95</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>53</v>
@@ -7841,7 +8170,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>28</v>
@@ -7858,10 +8187,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,10 +8204,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7892,10 +8221,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7912,7 +8241,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>25</v>
@@ -7929,7 +8258,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>53</v>
@@ -7946,7 +8275,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>15</v>
@@ -7966,7 +8295,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>25</v>
@@ -7983,7 +8312,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>25</v>
@@ -8000,7 +8329,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>53</v>
@@ -8017,7 +8346,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>53</v>
@@ -8037,10 +8366,10 @@
         <v>85</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8054,7 +8383,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>12</v>
@@ -8074,10 +8403,10 @@
         <v>67</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8094,7 +8423,7 @@
         <v>90</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>60</v>
@@ -8111,10 +8440,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,10 +8457,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8145,7 +8474,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>21</v>
@@ -8162,7 +8491,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F80" s="23" t="s">
         <v>15</v>
@@ -8182,10 +8511,10 @@
         <v>84</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>84</v>
@@ -8216,13 +8545,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,10 +8565,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8253,7 +8582,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>12</v>
@@ -8270,7 +8599,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>21</v>
@@ -8290,10 +8619,10 @@
         <v>87</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8310,7 +8639,7 @@
         <v>64</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>18</v>
@@ -8330,7 +8659,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>91</v>
@@ -8350,7 +8679,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>91</v>
@@ -8367,7 +8696,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>12</v>
@@ -8384,7 +8713,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>58</v>
@@ -8401,10 +8730,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8418,7 +8747,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>18</v>
@@ -8435,7 +8764,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>21</v>
@@ -8455,7 +8784,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>18</v>
@@ -8472,7 +8801,7 @@
         <v>63</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>84</v>
@@ -8489,10 +8818,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8503,13 +8832,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>12</v>
@@ -8523,16 +8852,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,7 +8878,7 @@
         <v>78</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>18</v>
@@ -8566,7 +8895,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>53</v>
@@ -8583,7 +8912,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>53</v>
@@ -8600,7 +8929,7 @@
         <v>80</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>84</v>
@@ -8620,7 +8949,7 @@
         <v>40</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,7 +8963,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F106" s="23" t="s">
         <v>91</v>
@@ -8651,7 +8980,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F107" s="23" t="s">
         <v>12</v>
@@ -8668,10 +8997,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8685,7 +9014,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>98</v>
@@ -8702,7 +9031,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>21</v>
@@ -8719,7 +9048,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>53</v>
@@ -8736,7 +9065,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>15</v>
@@ -8753,7 +9082,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>84</v>
@@ -8770,7 +9099,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>12</v>
@@ -8787,7 +9116,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>18</v>
@@ -8801,13 +9130,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="60" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>25</v>
@@ -8827,10 +9156,10 @@
         <v>73</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8988,31 +9317,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="61" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9047,7 +9377,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A4)</f>
@@ -9171,7 +9501,7 @@
       </c>
       <c r="B12" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A12)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>31.259087</v>
@@ -9231,7 +9561,7 @@
       </c>
       <c r="B16" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A16)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>31.773156</v>
@@ -9246,7 +9576,7 @@
       </c>
       <c r="B17" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A17)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32.07941</v>
@@ -9276,7 +9606,7 @@
       </c>
       <c r="B19" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>32.345588</v>
@@ -9291,7 +9621,7 @@
       </c>
       <c r="B20" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A20)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>31.873036</v>
@@ -9306,7 +9636,7 @@
       </c>
       <c r="B21" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A21)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>32.752342</v>
@@ -9351,7 +9681,7 @@
       </c>
       <c r="B24" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>32.485508</v>
@@ -9375,7 +9705,7 @@
         <v>34.98091</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>110</v>
       </c>
@@ -9390,6 +9720,22 @@
         <v>34.849844</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="63" t="n">
+        <f aca="false">COUNTIF(10yr!$F$1:$F$300,A27)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>33.008341</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>35.116952</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="151">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -487,6 +487,15 @@
   </si>
   <si>
     <t xml:space="preserve">בעיות רקע רבות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מרכז רפואי בני ציון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שמחה גמליאל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מחלת רקע משמעותית</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ynet.co.il/articles/0,7340,L-5714462,00.html</t>
@@ -1307,7 +1316,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1445,16 +1454,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>32</c:v>
@@ -1465,11 +1474,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64204493"/>
-        <c:axId val="80275216"/>
+        <c:axId val="95796655"/>
+        <c:axId val="26084940"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64204493"/>
+        <c:axId val="95796655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,14 +1510,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80275216"/>
+        <c:crossAx val="26084940"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80275216"/>
+        <c:axId val="26084940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1559,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64204493"/>
+        <c:crossAx val="95796655"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1578,7 +1587,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1796,11 +1805,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="8694642"/>
-        <c:axId val="2604813"/>
+        <c:axId val="30828891"/>
+        <c:axId val="41388570"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="8694642"/>
+        <c:axId val="30828891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,14 +1841,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2604813"/>
+        <c:crossAx val="41388570"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2604813"/>
+        <c:axId val="41388570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8694642"/>
+        <c:crossAx val="30828891"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1920,9 +1929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1931,7 +1940,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8125920" y="3099960"/>
-        <a:ext cx="5080320" cy="4006800"/>
+        <a:ext cx="5079600" cy="4006080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1955,9 +1964,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1966,7 +1975,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1834560" y="3886200"/>
-        <a:ext cx="5281920" cy="4034160"/>
+        <a:ext cx="5281200" cy="4033440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1984,10 +1993,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W239"/>
+  <dimension ref="A1:W259"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G259" activeCellId="0" sqref="G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,7 +2175,7 @@
       </c>
       <c r="M4" s="11" t="n">
         <f aca="false">L4/SUM($L$2:$L$11)</f>
-        <v>0.0050251256281407</v>
+        <v>0.00495049504950495</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,7 +2219,7 @@
       </c>
       <c r="M5" s="11" t="n">
         <f aca="false">L5/SUM($L$2:$L$11)</f>
-        <v>0.0050251256281407</v>
+        <v>0.00495049504950495</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2250,7 +2259,7 @@
       </c>
       <c r="M6" s="11" t="n">
         <f aca="false">L6/SUM($L$2:$L$11)</f>
-        <v>0.0201005025125628</v>
+        <v>0.0198019801980198</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,11 +2295,11 @@
       </c>
       <c r="L7" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I7,$C$2:$C$300,"&lt;="&amp;J7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" s="11" t="n">
         <f aca="false">L7/SUM($L$2:$L$11)</f>
-        <v>0.0301507537688442</v>
+        <v>0.0346534653465347</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,7 +2338,7 @@
       </c>
       <c r="M8" s="11" t="n">
         <f aca="false">L8/SUM($L$2:$L$11)</f>
-        <v>0.115577889447236</v>
+        <v>0.113861386138614</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,11 +2374,11 @@
       </c>
       <c r="L9" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I9,$C$2:$C$300,"&lt;="&amp;J9)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="11" t="n">
         <f aca="false">L9/SUM($L$2:$L$11)</f>
-        <v>0.296482412060301</v>
+        <v>0.297029702970297</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,11 +2418,11 @@
       </c>
       <c r="L10" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I10,$C$2:$C$300,"&lt;="&amp;J10)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M10" s="11" t="n">
         <f aca="false">L10/SUM($L$2:$L$11)</f>
-        <v>0.366834170854271</v>
+        <v>0.366336633663366</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,7 +2466,7 @@
       </c>
       <c r="M11" s="11" t="n">
         <f aca="false">L11/SUM($L$2:$L$11)</f>
-        <v>0.160804020100503</v>
+        <v>0.158415841584158</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,7 +2635,7 @@
       <c r="H18" s="27"/>
       <c r="K18" s="33" t="n">
         <f aca="false">AVERAGE(C2:C300)</f>
-        <v>79.8391959798995</v>
+        <v>79.7227722772277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,7 +6539,156 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="0" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="0" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="0" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="0" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="21" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="0" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="0" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="0" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="0" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="0" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="0" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="0" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="21" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E258" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G258" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="21" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E259" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -6568,7 +6726,7 @@
       </c>
       <c r="L1" s="37" t="n">
         <f aca="true">TODAY()</f>
-        <v>43956</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,7 +7203,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -7082,7 +7240,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,7 +7257,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>15</v>
@@ -7119,7 +7277,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7133,10 +7291,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,13 +7305,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>21</v>
@@ -7170,7 +7328,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>18</v>
@@ -7187,10 +7345,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,7 +7362,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -7224,7 +7382,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>25</v>
@@ -7244,7 +7402,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>28</v>
@@ -7264,7 +7422,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>15</v>
@@ -7284,10 +7442,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,10 +7462,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,7 +7482,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>12</v>
@@ -7338,13 +7496,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>12</v>
@@ -7364,7 +7522,7 @@
         <v>91</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>45</v>
@@ -7384,7 +7542,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>21</v>
@@ -7404,10 +7562,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,7 +7579,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>15</v>
@@ -7441,10 +7599,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7458,7 +7616,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>25</v>
@@ -7475,7 +7633,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>12</v>
@@ -7492,7 +7650,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>15</v>
@@ -7509,7 +7667,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>21</v>
@@ -7523,13 +7681,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>15</v>
@@ -7549,7 +7707,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>21</v>
@@ -7566,7 +7724,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>12</v>
@@ -7583,7 +7741,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>18</v>
@@ -7600,7 +7758,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>18</v>
@@ -7620,7 +7778,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>49</v>
@@ -7640,7 +7798,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>49</v>
@@ -7657,7 +7815,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>53</v>
@@ -7671,13 +7829,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>28</v>
@@ -7697,7 +7855,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>12</v>
@@ -7714,10 +7872,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7734,7 +7892,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>25</v>
@@ -7751,7 +7909,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>53</v>
@@ -7768,7 +7926,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>60</v>
@@ -7788,7 +7946,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>53</v>
@@ -7808,7 +7966,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>58</v>
@@ -7828,7 +7986,7 @@
         <v>76</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>49</v>
@@ -7845,7 +8003,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>25</v>
@@ -7865,7 +8023,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>53</v>
@@ -7885,10 +8043,10 @@
         <v>88</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,7 +8060,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>12</v>
@@ -7922,7 +8080,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>12</v>
@@ -7936,16 +8094,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,7 +8117,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>15</v>
@@ -7979,7 +8137,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>25</v>
@@ -7996,7 +8154,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>53</v>
@@ -8016,7 +8174,7 @@
         <v>77</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>12</v>
@@ -8036,10 +8194,10 @@
         <v>90</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,7 +8211,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>12</v>
@@ -8073,10 +8231,10 @@
         <v>66</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,10 +8251,10 @@
         <v>95</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,7 +8268,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>53</v>
@@ -8130,10 +8288,10 @@
         <v>80</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8150,7 +8308,7 @@
         <v>95</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>53</v>
@@ -8170,7 +8328,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>28</v>
@@ -8187,10 +8345,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8204,10 +8362,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,10 +8379,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,7 +8399,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>25</v>
@@ -8258,7 +8416,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>53</v>
@@ -8275,7 +8433,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>15</v>
@@ -8295,7 +8453,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>25</v>
@@ -8312,7 +8470,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>25</v>
@@ -8329,7 +8487,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>53</v>
@@ -8346,7 +8504,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>53</v>
@@ -8366,10 +8524,10 @@
         <v>85</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,7 +8541,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>12</v>
@@ -8403,10 +8561,10 @@
         <v>67</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8423,7 +8581,7 @@
         <v>90</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>60</v>
@@ -8440,10 +8598,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,10 +8615,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,7 +8632,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>21</v>
@@ -8491,7 +8649,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F80" s="23" t="s">
         <v>15</v>
@@ -8511,10 +8669,10 @@
         <v>84</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8528,7 +8686,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>84</v>
@@ -8545,13 +8703,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,10 +8723,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,7 +8740,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>12</v>
@@ -8599,7 +8757,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>21</v>
@@ -8619,10 +8777,10 @@
         <v>87</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,7 +8797,7 @@
         <v>64</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>18</v>
@@ -8659,7 +8817,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>91</v>
@@ -8679,7 +8837,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>91</v>
@@ -8696,7 +8854,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>12</v>
@@ -8713,7 +8871,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>58</v>
@@ -8730,10 +8888,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8747,7 +8905,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>18</v>
@@ -8764,7 +8922,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>21</v>
@@ -8784,7 +8942,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>18</v>
@@ -8801,7 +8959,7 @@
         <v>63</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>84</v>
@@ -8818,10 +8976,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8832,13 +8990,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>12</v>
@@ -8852,16 +9010,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8878,7 +9036,7 @@
         <v>78</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>18</v>
@@ -8895,7 +9053,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>53</v>
@@ -8912,7 +9070,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>53</v>
@@ -8929,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>84</v>
@@ -8949,7 +9107,7 @@
         <v>40</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8963,7 +9121,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F106" s="23" t="s">
         <v>91</v>
@@ -8980,7 +9138,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F107" s="23" t="s">
         <v>12</v>
@@ -8997,10 +9155,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9014,7 +9172,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>98</v>
@@ -9031,7 +9189,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>21</v>
@@ -9048,7 +9206,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>53</v>
@@ -9065,7 +9223,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>15</v>
@@ -9082,7 +9240,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>84</v>
@@ -9099,7 +9257,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>12</v>
@@ -9116,7 +9274,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>18</v>
@@ -9130,13 +9288,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>25</v>
@@ -9156,10 +9314,10 @@
         <v>73</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9320,7 +9478,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9333,16 +9491,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9377,7 +9535,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B4" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A4)</f>
@@ -9411,7 +9569,7 @@
       </c>
       <c r="B6" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A6)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>31.764912</v>
@@ -9576,7 +9734,7 @@
       </c>
       <c r="B17" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A17)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>32.07941</v>
@@ -9735,7 +9893,15 @@
         <v>35.116952</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="63" t="n">
+        <f aca="false">COUNTIF(10yr!$F$1:$F$300,A28)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="153">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t xml:space="preserve">מחלת רקע משמעותית</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סבל ממחלת ריאות כרונית והונשם עוד לפני שחלה בקורונה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבישלום רוזיליו</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ynet.co.il/articles/0,7340,L-5714462,00.html</t>
@@ -1316,7 +1322,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1342,7 +1348,7 @@
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>COVID-19 deaths in Israel be age groups</a:t>
+              <a:t>COVID-19 deaths in Israel by age groups</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1448,7 +1454,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -1460,7 +1466,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>74</c:v>
@@ -1474,11 +1480,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="95796655"/>
-        <c:axId val="26084940"/>
+        <c:axId val="43449204"/>
+        <c:axId val="70498309"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95796655"/>
+        <c:axId val="43449204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,14 +1516,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26084940"/>
+        <c:crossAx val="70498309"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26084940"/>
+        <c:axId val="70498309"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1565,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95796655"/>
+        <c:crossAx val="43449204"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1587,7 +1593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1758,7 +1764,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1770,34 +1776,34 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1805,11 +1811,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="30828891"/>
-        <c:axId val="41388570"/>
+        <c:axId val="56691889"/>
+        <c:axId val="97567246"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30828891"/>
+        <c:axId val="56691889"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,14 +1847,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41388570"/>
+        <c:crossAx val="97567246"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41388570"/>
+        <c:axId val="97567246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1896,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30828891"/>
+        <c:crossAx val="56691889"/>
         <c:crossesAt val="1"/>
       </c:valAx>
       <c:spPr>
@@ -1929,9 +1935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1940,7 +1946,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8125920" y="3099960"/>
-        <a:ext cx="5079600" cy="4006080"/>
+        <a:ext cx="5079240" cy="4005720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1959,14 +1965,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
+      <xdr:colOff>389160</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1975,7 +1981,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1834560" y="3886200"/>
-        <a:ext cx="5281200" cy="4033440"/>
+        <a:ext cx="5280840" cy="4033080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1993,10 +1999,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W259"/>
+  <dimension ref="A1:W280"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G259" activeCellId="0" sqref="G259"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2175,7 +2181,7 @@
       </c>
       <c r="M4" s="11" t="n">
         <f aca="false">L4/SUM($L$2:$L$11)</f>
-        <v>0.00495049504950495</v>
+        <v>0.00490196078431373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,11 +2221,11 @@
       </c>
       <c r="L5" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I5,$C$2:$C$300,"&lt;="&amp;J5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="11" t="n">
         <f aca="false">L5/SUM($L$2:$L$11)</f>
-        <v>0.00495049504950495</v>
+        <v>0.00980392156862745</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,7 +2265,7 @@
       </c>
       <c r="M6" s="11" t="n">
         <f aca="false">L6/SUM($L$2:$L$11)</f>
-        <v>0.0198019801980198</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,7 +2305,7 @@
       </c>
       <c r="M7" s="11" t="n">
         <f aca="false">L7/SUM($L$2:$L$11)</f>
-        <v>0.0346534653465347</v>
+        <v>0.0343137254901961</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,7 +2344,7 @@
       </c>
       <c r="M8" s="11" t="n">
         <f aca="false">L8/SUM($L$2:$L$11)</f>
-        <v>0.113861386138614</v>
+        <v>0.112745098039216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,11 +2380,11 @@
       </c>
       <c r="L9" s="3" t="n">
         <f aca="false">COUNTIFS($C$2:$C$300,"&gt;="&amp;I9,$C$2:$C$300,"&lt;="&amp;J9)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="11" t="n">
         <f aca="false">L9/SUM($L$2:$L$11)</f>
-        <v>0.297029702970297</v>
+        <v>0.299019607843137</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,7 +2428,7 @@
       </c>
       <c r="M10" s="11" t="n">
         <f aca="false">L10/SUM($L$2:$L$11)</f>
-        <v>0.366336633663366</v>
+        <v>0.362745098039216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2472,7 @@
       </c>
       <c r="M11" s="11" t="n">
         <f aca="false">L11/SUM($L$2:$L$11)</f>
-        <v>0.158415841584158</v>
+        <v>0.156862745098039</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2641,7 @@
       <c r="H18" s="27"/>
       <c r="K18" s="33" t="n">
         <f aca="false">AVERAGE(C2:C300)</f>
-        <v>79.7227722772277</v>
+        <v>79.4950980392157</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,6 +6693,144 @@
       </c>
       <c r="F259" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="0" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="0" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="0" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="0" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="0" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="0" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="0" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="0" t="n">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="0" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="0" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="0" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="0" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="0" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="0" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="0" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="0" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="21" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="0" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="0" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="21" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D280" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E280" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6708,8 +6852,8 @@
   </sheetPr>
   <dimension ref="G1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M38" activeCellId="0" sqref="M38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6725,11 +6869,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="37" t="n">
-        <f aca="true">TODAY()</f>
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43971</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
@@ -6741,7 +6884,7 @@
         <v>0-5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G2,10yr!$C$2:$C$200,"&lt;="&amp;H2)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G2,10yr!$C$2:$C$300,"&lt;="&amp;H2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="58" t="n">
@@ -6749,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="0" t="n">
         <f aca="false">H2+1</f>
         <v>6</v>
@@ -6763,7 +6906,7 @@
         <v>6-10</v>
       </c>
       <c r="J3" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G3,10yr!$C$2:$C$200,"&lt;="&amp;H3)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G3,10yr!$C$2:$C$300,"&lt;="&amp;H3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="58" t="n">
@@ -6771,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="0" t="n">
         <f aca="false">H3+1</f>
         <v>11</v>
@@ -6785,7 +6928,7 @@
         <v>11-15</v>
       </c>
       <c r="J4" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G4,10yr!$C$2:$C$200,"&lt;="&amp;H4)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G4,10yr!$C$2:$C$300,"&lt;="&amp;H4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="58" t="n">
@@ -6793,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="0" t="n">
         <f aca="false">H4+1</f>
         <v>16</v>
@@ -6807,7 +6950,7 @@
         <v>16-20</v>
       </c>
       <c r="J5" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G5,10yr!$C$2:$C$200,"&lt;="&amp;H5)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G5,10yr!$C$2:$C$300,"&lt;="&amp;H5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="58" t="n">
@@ -6815,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="0" t="n">
         <f aca="false">H5+1</f>
         <v>21</v>
@@ -6829,7 +6972,7 @@
         <v>21-25</v>
       </c>
       <c r="J6" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G6,10yr!$C$2:$C$200,"&lt;="&amp;H6)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G6,10yr!$C$2:$C$300,"&lt;="&amp;H6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="58" t="n">
@@ -6837,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="0" t="n">
         <f aca="false">H6+1</f>
         <v>26</v>
@@ -6851,15 +6994,15 @@
         <v>26-30</v>
       </c>
       <c r="J7" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G7,10yr!$C$2:$C$200,"&lt;="&amp;H7)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G7,10yr!$C$2:$C$300,"&lt;="&amp;H7)</f>
         <v>1</v>
       </c>
       <c r="L7" s="58" t="n">
         <f aca="false">J7/SUM($J$2:$J$21)</f>
-        <v>0.00543478260869565</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00490196078431373</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="0" t="n">
         <f aca="false">H7+1</f>
         <v>31</v>
@@ -6873,15 +7016,15 @@
         <v>31-35</v>
       </c>
       <c r="J8" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G8,10yr!$C$2:$C$200,"&lt;="&amp;H8)</f>
-        <v>0</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G8,10yr!$C$2:$C$300,"&lt;="&amp;H8)</f>
+        <v>1</v>
       </c>
       <c r="L8" s="58" t="n">
         <f aca="false">J8/SUM($J$2:$J$21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00490196078431373</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="0" t="n">
         <f aca="false">H8+1</f>
         <v>36</v>
@@ -6895,15 +7038,15 @@
         <v>36-40</v>
       </c>
       <c r="J9" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G9,10yr!$C$2:$C$200,"&lt;="&amp;H9)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G9,10yr!$C$2:$C$300,"&lt;="&amp;H9)</f>
         <v>1</v>
       </c>
       <c r="L9" s="58" t="n">
         <f aca="false">J9/SUM($J$2:$J$21)</f>
-        <v>0.00543478260869565</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00490196078431373</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="0" t="n">
         <f aca="false">H9+1</f>
         <v>41</v>
@@ -6917,15 +7060,15 @@
         <v>41-45</v>
       </c>
       <c r="J10" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G10,10yr!$C$2:$C$200,"&lt;="&amp;H10)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G10,10yr!$C$2:$C$300,"&lt;="&amp;H10)</f>
         <v>1</v>
       </c>
       <c r="L10" s="58" t="n">
         <f aca="false">J10/SUM($J$2:$J$21)</f>
-        <v>0.00543478260869565</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.00490196078431373</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G11" s="0" t="n">
         <f aca="false">H10+1</f>
         <v>46</v>
@@ -6939,15 +7082,15 @@
         <v>46-50</v>
       </c>
       <c r="J11" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G11,10yr!$C$2:$C$200,"&lt;="&amp;H11)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G11,10yr!$C$2:$C$300,"&lt;="&amp;H11)</f>
         <v>3</v>
       </c>
       <c r="L11" s="58" t="n">
         <f aca="false">J11/SUM($J$2:$J$21)</f>
-        <v>0.016304347826087</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0147058823529412</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="0" t="n">
         <f aca="false">H11+1</f>
         <v>51</v>
@@ -6961,15 +7104,15 @@
         <v>51-55</v>
       </c>
       <c r="J12" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G12,10yr!$C$2:$C$200,"&lt;="&amp;H12)</f>
-        <v>3</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G12,10yr!$C$2:$C$300,"&lt;="&amp;H12)</f>
+        <v>4</v>
       </c>
       <c r="L12" s="58" t="n">
         <f aca="false">J12/SUM($J$2:$J$21)</f>
-        <v>0.016304347826087</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0196078431372549</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="0" t="n">
         <f aca="false">H12+1</f>
         <v>56</v>
@@ -6983,15 +7126,15 @@
         <v>56-60</v>
       </c>
       <c r="J13" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G13,10yr!$C$2:$C$200,"&lt;="&amp;H13)</f>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G13,10yr!$C$2:$C$300,"&lt;="&amp;H13)</f>
         <v>3</v>
       </c>
       <c r="L13" s="58" t="n">
         <f aca="false">J13/SUM($J$2:$J$21)</f>
-        <v>0.016304347826087</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0147058823529412</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="0" t="n">
         <f aca="false">H13+1</f>
         <v>61</v>
@@ -7005,15 +7148,15 @@
         <v>61-65</v>
       </c>
       <c r="J14" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G14,10yr!$C$2:$C$200,"&lt;="&amp;H14)</f>
-        <v>9</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G14,10yr!$C$2:$C$300,"&lt;="&amp;H14)</f>
+        <v>10</v>
       </c>
       <c r="L14" s="58" t="n">
         <f aca="false">J14/SUM($J$2:$J$21)</f>
-        <v>0.0489130434782609</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0490196078431373</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="0" t="n">
         <f aca="false">H14+1</f>
         <v>66</v>
@@ -7027,15 +7170,15 @@
         <v>66-70</v>
       </c>
       <c r="J15" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G15,10yr!$C$2:$C$200,"&lt;="&amp;H15)</f>
-        <v>12</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G15,10yr!$C$2:$C$300,"&lt;="&amp;H15)</f>
+        <v>13</v>
       </c>
       <c r="L15" s="58" t="n">
         <f aca="false">J15/SUM($J$2:$J$21)</f>
-        <v>0.0652173913043478</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0637254901960784</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="0" t="n">
         <f aca="false">H15+1</f>
         <v>71</v>
@@ -7049,15 +7192,15 @@
         <v>71-75</v>
       </c>
       <c r="J16" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G16,10yr!$C$2:$C$200,"&lt;="&amp;H16)</f>
-        <v>25</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G16,10yr!$C$2:$C$300,"&lt;="&amp;H16)</f>
+        <v>26</v>
       </c>
       <c r="L16" s="58" t="n">
         <f aca="false">J16/SUM($J$2:$J$21)</f>
-        <v>0.135869565217391</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.127450980392157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="0" t="n">
         <f aca="false">H16+1</f>
         <v>76</v>
@@ -7071,15 +7214,15 @@
         <v>76-80</v>
       </c>
       <c r="J17" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G17,10yr!$C$2:$C$200,"&lt;="&amp;H17)</f>
-        <v>30</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G17,10yr!$C$2:$C$300,"&lt;="&amp;H17)</f>
+        <v>35</v>
       </c>
       <c r="L17" s="58" t="n">
         <f aca="false">J17/SUM($J$2:$J$21)</f>
-        <v>0.16304347826087</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.17156862745098</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="0" t="n">
         <f aca="false">H17+1</f>
         <v>81</v>
@@ -7093,15 +7236,15 @@
         <v>81-85</v>
       </c>
       <c r="J18" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G18,10yr!$C$2:$C$200,"&lt;="&amp;H18)</f>
-        <v>28</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G18,10yr!$C$2:$C$300,"&lt;="&amp;H18)</f>
+        <v>29</v>
       </c>
       <c r="L18" s="58" t="n">
         <f aca="false">J18/SUM($J$2:$J$21)</f>
-        <v>0.152173913043478</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.142156862745098</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="0" t="n">
         <f aca="false">H18+1</f>
         <v>86</v>
@@ -7115,15 +7258,15 @@
         <v>86-90</v>
       </c>
       <c r="J19" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G19,10yr!$C$2:$C$200,"&lt;="&amp;H19)</f>
-        <v>38</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G19,10yr!$C$2:$C$300,"&lt;="&amp;H19)</f>
+        <v>45</v>
       </c>
       <c r="L19" s="58" t="n">
         <f aca="false">J19/SUM($J$2:$J$21)</f>
-        <v>0.206521739130435</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.220588235294118</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="0" t="n">
         <f aca="false">H19+1</f>
         <v>91</v>
@@ -7137,15 +7280,15 @@
         <v>91-95</v>
       </c>
       <c r="J20" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G20,10yr!$C$2:$C$200,"&lt;="&amp;H20)</f>
-        <v>18</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G20,10yr!$C$2:$C$300,"&lt;="&amp;H20)</f>
+        <v>19</v>
       </c>
       <c r="L20" s="58" t="n">
         <f aca="false">J20/SUM($J$2:$J$21)</f>
-        <v>0.0978260869565217</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0931372549019608</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="0" t="n">
         <f aca="false">H20+1</f>
         <v>96</v>
@@ -7159,12 +7302,12 @@
         <v>96-100</v>
       </c>
       <c r="J21" s="0" t="n">
-        <f aca="false">COUNTIFS(10yr!$C$2:$C$200,"&gt;="&amp;G21,10yr!$C$2:$C$200,"&lt;="&amp;H21)</f>
-        <v>12</v>
+        <f aca="false">COUNTIFS(10yr!$C$2:$C$300,"&gt;="&amp;G21,10yr!$C$2:$C$300,"&lt;="&amp;H21)</f>
+        <v>13</v>
       </c>
       <c r="L21" s="58" t="n">
         <f aca="false">J21/SUM($J$2:$J$21)</f>
-        <v>0.0652173913043478</v>
+        <v>0.0637254901960784</v>
       </c>
     </row>
   </sheetData>
@@ -7203,7 +7346,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -7240,7 +7383,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,7 +7400,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>15</v>
@@ -7277,7 +7420,7 @@
         <v>87</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,10 +7434,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7305,13 +7448,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>76</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>21</v>
@@ -7328,7 +7471,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>18</v>
@@ -7345,10 +7488,10 @@
         <v>83</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,7 +7505,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -7382,7 +7525,7 @@
         <v>93</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>25</v>
@@ -7402,7 +7545,7 @@
         <v>76</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>28</v>
@@ -7422,7 +7565,7 @@
         <v>80</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>15</v>
@@ -7442,10 +7585,10 @@
         <v>73</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7462,10 +7605,10 @@
         <v>94</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7482,7 +7625,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>12</v>
@@ -7496,13 +7639,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>84</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>12</v>
@@ -7522,7 +7665,7 @@
         <v>91</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>45</v>
@@ -7542,7 +7685,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>21</v>
@@ -7562,10 +7705,10 @@
         <v>49</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,7 +7722,7 @@
         <v>90</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>15</v>
@@ -7599,10 +7742,10 @@
         <v>72</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,7 +7759,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>25</v>
@@ -7633,7 +7776,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>12</v>
@@ -7650,7 +7793,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>15</v>
@@ -7667,7 +7810,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>21</v>
@@ -7681,13 +7824,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>66</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>15</v>
@@ -7707,7 +7850,7 @@
         <v>66</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>21</v>
@@ -7724,7 +7867,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>12</v>
@@ -7741,7 +7884,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>18</v>
@@ -7758,7 +7901,7 @@
         <v>97</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>18</v>
@@ -7778,7 +7921,7 @@
         <v>77</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>49</v>
@@ -7798,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>49</v>
@@ -7815,7 +7958,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>53</v>
@@ -7829,13 +7972,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>28</v>
@@ -7855,7 +7998,7 @@
         <v>84</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>12</v>
@@ -7872,10 +8015,10 @@
         <v>77</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7892,7 +8035,7 @@
         <v>87</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>25</v>
@@ -7909,7 +8052,7 @@
         <v>90</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>53</v>
@@ -7926,7 +8069,7 @@
         <v>73</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>60</v>
@@ -7946,7 +8089,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>53</v>
@@ -7966,7 +8109,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>58</v>
@@ -7986,7 +8129,7 @@
         <v>76</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>49</v>
@@ -8003,7 +8146,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>25</v>
@@ -8023,7 +8166,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>53</v>
@@ -8043,10 +8186,10 @@
         <v>88</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8060,7 +8203,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>12</v>
@@ -8080,7 +8223,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>12</v>
@@ -8094,16 +8237,16 @@
         <v>47</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,7 +8260,7 @@
         <v>61</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>15</v>
@@ -8137,7 +8280,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>25</v>
@@ -8154,7 +8297,7 @@
         <v>87</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>53</v>
@@ -8174,7 +8317,7 @@
         <v>77</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>12</v>
@@ -8194,10 +8337,10 @@
         <v>90</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8211,7 +8354,7 @@
         <v>91</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>12</v>
@@ -8231,10 +8374,10 @@
         <v>66</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,10 +8394,10 @@
         <v>95</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8268,7 +8411,7 @@
         <v>72</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>53</v>
@@ -8288,10 +8431,10 @@
         <v>80</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8308,7 +8451,7 @@
         <v>95</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>53</v>
@@ -8328,7 +8471,7 @@
         <v>37</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>28</v>
@@ -8345,10 +8488,10 @@
         <v>95</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,10 +8505,10 @@
         <v>74</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,10 +8522,10 @@
         <v>93</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,7 +8542,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>25</v>
@@ -8416,7 +8559,7 @@
         <v>75</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>53</v>
@@ -8433,7 +8576,7 @@
         <v>90</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>15</v>
@@ -8453,7 +8596,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>25</v>
@@ -8470,7 +8613,7 @@
         <v>63</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>25</v>
@@ -8487,7 +8630,7 @@
         <v>75</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F71" s="23" t="s">
         <v>53</v>
@@ -8504,7 +8647,7 @@
         <v>77</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F72" s="23" t="s">
         <v>53</v>
@@ -8524,10 +8667,10 @@
         <v>85</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,7 +8684,7 @@
         <v>90</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>12</v>
@@ -8561,10 +8704,10 @@
         <v>67</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8581,7 +8724,7 @@
         <v>90</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>60</v>
@@ -8598,10 +8741,10 @@
         <v>72</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8615,10 +8758,10 @@
         <v>75</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,7 +8775,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>21</v>
@@ -8649,7 +8792,7 @@
         <v>82</v>
       </c>
       <c r="E80" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F80" s="23" t="s">
         <v>15</v>
@@ -8669,10 +8812,10 @@
         <v>84</v>
       </c>
       <c r="E81" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8686,7 +8829,7 @@
         <v>89</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>84</v>
@@ -8703,13 +8846,13 @@
         <v>86</v>
       </c>
       <c r="E83" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8723,10 +8866,10 @@
         <v>76</v>
       </c>
       <c r="E84" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8740,7 +8883,7 @@
         <v>86</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F85" s="23" t="s">
         <v>12</v>
@@ -8757,7 +8900,7 @@
         <v>72</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>21</v>
@@ -8777,10 +8920,10 @@
         <v>87</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8797,7 +8940,7 @@
         <v>64</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>18</v>
@@ -8817,7 +8960,7 @@
         <v>78</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>91</v>
@@ -8837,7 +8980,7 @@
         <v>82</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>91</v>
@@ -8854,7 +8997,7 @@
         <v>84</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>12</v>
@@ -8871,7 +9014,7 @@
         <v>89</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>58</v>
@@ -8888,10 +9031,10 @@
         <v>96</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,7 +9048,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>18</v>
@@ -8922,7 +9065,7 @@
         <v>91</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>21</v>
@@ -8942,7 +9085,7 @@
         <v>53</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>18</v>
@@ -8959,7 +9102,7 @@
         <v>63</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>84</v>
@@ -8976,10 +9119,10 @@
         <v>90</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8990,13 +9133,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="60" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>79</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>12</v>
@@ -9010,16 +9153,16 @@
         <v>97</v>
       </c>
       <c r="C100" s="60" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>90</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,7 +9179,7 @@
         <v>78</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>18</v>
@@ -9053,7 +9196,7 @@
         <v>96</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F102" s="23" t="s">
         <v>53</v>
@@ -9070,7 +9213,7 @@
         <v>81</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F103" s="23" t="s">
         <v>53</v>
@@ -9087,7 +9230,7 @@
         <v>80</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>84</v>
@@ -9107,7 +9250,7 @@
         <v>40</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9121,7 +9264,7 @@
         <v>80</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F106" s="23" t="s">
         <v>91</v>
@@ -9138,7 +9281,7 @@
         <v>85</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F107" s="23" t="s">
         <v>12</v>
@@ -9155,10 +9298,10 @@
         <v>91</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9172,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>98</v>
@@ -9189,7 +9332,7 @@
         <v>86</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>21</v>
@@ -9206,7 +9349,7 @@
         <v>81</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>53</v>
@@ -9223,7 +9366,7 @@
         <v>82</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>15</v>
@@ -9240,7 +9383,7 @@
         <v>71</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>84</v>
@@ -9257,7 +9400,7 @@
         <v>90</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>12</v>
@@ -9274,7 +9417,7 @@
         <v>78</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>18</v>
@@ -9288,13 +9431,13 @@
         <v>113</v>
       </c>
       <c r="C116" s="60" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D116" s="0" t="n">
         <v>82</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F116" s="23" t="s">
         <v>25</v>
@@ -9314,10 +9457,10 @@
         <v>73</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9478,7 +9621,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9491,16 +9634,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="61" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9535,7 +9678,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A4)</f>
@@ -9584,7 +9727,7 @@
       </c>
       <c r="B7" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>32.451451</v>
@@ -9689,7 +9832,7 @@
       </c>
       <c r="B14" s="63" t="n">
         <f aca="false">COUNTIF(10yr!$F$1:$F$300,A14)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>32.046719</v>

--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis\Documents\covid19isr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD7AC69-8488-4056-A027-E60A44106CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83DC93-CE91-4B32-9F81-34C248F85244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1785" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="450" windowWidth="25410" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10yr" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="153">
   <si>
     <t>date</t>
   </si>
@@ -721,9 +721,6 @@
     <t>סימה מיארה</t>
   </si>
   <si>
-    <t>מרכז רפועי שהם</t>
-  </si>
-  <si>
     <t>חלות רקע שונות</t>
   </si>
   <si>
@@ -733,16 +730,10 @@
     <t>הגיע למחלקה מהמוסד "עטרת אבות"</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>מרכז הרפועי בני ציון</t>
   </si>
   <si>
     <t>מחלת רקע משמעותית</t>
-  </si>
-  <si>
-    <t>מרכז רפועי הלל יפה</t>
   </si>
   <si>
     <t>מספר מחלות רקע</t>
@@ -756,7 +747,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -831,8 +822,15 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF4285F4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,6 +846,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1102,6 +1106,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2223,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B302" sqref="B302"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6099,17 +6105,13 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="17">
-        <v>43943</v>
-      </c>
+      <c r="A183" s="17"/>
       <c r="B183">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="17">
-        <v>43943</v>
-      </c>
+      <c r="A184" s="17"/>
       <c r="B184">
         <v>183</v>
       </c>
@@ -6589,8 +6591,8 @@
       <c r="E218" t="s">
         <v>14</v>
       </c>
-      <c r="F218" t="s">
-        <v>147</v>
+      <c r="F218" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6701,7 +6703,7 @@
         <v>97</v>
       </c>
       <c r="D230" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
@@ -6813,16 +6815,14 @@
         <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="B240">
         <v>239</v>
       </c>
-      <c r="C240" t="s">
-        <v>151</v>
-      </c>
+      <c r="C240" s="65"/>
       <c r="E240" t="s">
         <v>10</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>50</v>
       </c>
       <c r="G240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6872,7 +6872,7 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6961,7 +6961,7 @@
         <v>52</v>
       </c>
       <c r="D259" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
@@ -7071,8 +7071,8 @@
       <c r="E277" t="s">
         <v>10</v>
       </c>
-      <c r="F277" t="s">
-        <v>154</v>
+      <c r="F277" s="48" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7156,7 +7156,7 @@
         <v>71</v>
       </c>
       <c r="D292" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
@@ -7225,7 +7225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -7700,7 +7700,7 @@
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9984,10 +9984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DD886-0327-44C4-956A-351B4E9C68F7}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B7" s="49">
         <f>COUNTIF('10yr'!$F$1:$F$400,A7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>32.451450999999999</v>
@@ -10235,7 +10235,7 @@
         <v>35.185318000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:6">
       <c r="A17" s="48" t="s">
         <v>34</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>34.881759000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:6">
       <c r="A18" s="48" t="s">
         <v>48</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>35.492764000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="48" t="s">
         <v>50</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>34.855981999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:6">
       <c r="A20" s="48" t="s">
         <v>52</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>34.814439999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:6">
       <c r="A21" s="48" t="s">
         <v>54</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>35.539546000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" s="48" t="s">
         <v>55</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>34.859389</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -10340,13 +10340,13 @@
         <v>34.753089000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="49">
         <f>COUNTIF('10yr'!$F$1:$F$400,A24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>32.485508000000003</v>
@@ -10355,7 +10355,7 @@
         <v>34.969892000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" s="50" t="s">
         <v>59</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>34.980910000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:6">
       <c r="A26" s="50" t="s">
         <v>132</v>
       </c>
@@ -10385,7 +10385,39 @@
         <v>34.849843999999997</v>
       </c>
     </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$400,A27)</f>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>32.805875</v>
+      </c>
+      <c r="D27">
+        <v>34.992907000000002</v>
+      </c>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="49">
+        <f>COUNTIF('10yr'!$F$1:$F$400,A28)</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>33.008367999999997</v>
+      </c>
+      <c r="D28">
+        <v>35.11692</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/corona_deaths_hist_israel.xlsx
+++ b/corona_deaths_hist_israel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dennis\Documents\covid19isr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83DC93-CE91-4B32-9F81-34C248F85244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD8566C-3294-4831-B130-7528CE8D6B22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="450" windowWidth="25410" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1785" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10yr" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="157">
   <si>
     <t>date</t>
   </si>
@@ -737,6 +737,18 @@
   </si>
   <si>
     <t>מספר מחלות רקע</t>
+  </si>
+  <si>
+    <t>הילל יפה</t>
+  </si>
+  <si>
+    <t>80+</t>
+  </si>
+  <si>
+    <t>90+</t>
+  </si>
+  <si>
+    <t>מחלה כרונית ומחלות רקע שונות</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1289,7 @@
             </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -1340,7 +1352,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1352,16 +1364,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2227,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W301"/>
+  <dimension ref="A1:W425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2318,7 +2330,7 @@
         <v>0-10</v>
       </c>
       <c r="L2" s="50">
-        <f>COUNTIFS($C$2:$C$400,"&gt;="&amp;I2,$C$2:$C$400,"&lt;="&amp;J2)</f>
+        <f>COUNTIFS($C$2:$C$500,"&gt;="&amp;I2,$C$2:$C$500,"&lt;="&amp;J2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="60">
@@ -2360,7 +2372,7 @@
         <v>11-20</v>
       </c>
       <c r="L3" s="50">
-        <f t="shared" ref="L3:L11" si="4">COUNTIFS($C$2:$C$400,"&gt;="&amp;I3,$C$2:$C$400,"&lt;="&amp;J3)</f>
+        <f t="shared" ref="L3:L11" si="4">COUNTIFS($C$2:$C$500,"&gt;="&amp;I3,$C$2:$C$500,"&lt;="&amp;J3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="60">
@@ -2405,11 +2417,11 @@
       </c>
       <c r="L4" s="50">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="60">
         <f t="shared" si="0"/>
-        <v>4.830917874396135E-3</v>
+        <v>9.1743119266055051E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2453,7 +2465,7 @@
       </c>
       <c r="M5" s="60">
         <f t="shared" si="0"/>
-        <v>4.830917874396135E-3</v>
+        <v>4.5871559633027525E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2493,7 +2505,7 @@
       </c>
       <c r="M6" s="60">
         <f t="shared" si="0"/>
-        <v>1.932367149758454E-2</v>
+        <v>1.834862385321101E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2533,7 +2545,7 @@
       </c>
       <c r="M7" s="60">
         <f t="shared" si="0"/>
-        <v>3.3816425120772944E-2</v>
+        <v>3.2110091743119268E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2568,11 +2580,11 @@
       </c>
       <c r="L8" s="50">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="60">
         <f t="shared" si="0"/>
-        <v>0.11594202898550725</v>
+        <v>0.11467889908256881</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2608,11 +2620,11 @@
       </c>
       <c r="L9" s="50">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M9" s="60">
         <f t="shared" si="0"/>
-        <v>0.30434782608695654</v>
+        <v>0.30275229357798167</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2652,11 +2664,11 @@
       </c>
       <c r="L10" s="50">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M10" s="60">
         <f t="shared" si="0"/>
-        <v>0.35748792270531399</v>
+        <v>0.36238532110091742</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2696,11 +2708,11 @@
       </c>
       <c r="L11" s="50">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="60">
         <f t="shared" si="0"/>
-        <v>0.15942028985507245</v>
+        <v>0.15596330275229359</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2868,8 +2880,8 @@
       </c>
       <c r="H18" s="52"/>
       <c r="K18" s="62">
-        <f>AVERAGE(C2:C400)</f>
-        <v>79.637681159420296</v>
+        <f>AVERAGE(C2:C500)</f>
+        <v>79.4908256880734</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7206,8 +7218,787 @@
       </c>
     </row>
     <row r="301" spans="1:6">
+      <c r="A301" s="17">
+        <v>43996</v>
+      </c>
       <c r="B301">
         <v>300</v>
+      </c>
+      <c r="C301">
+        <v>26</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="B302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="B303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="B304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="B321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="B322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="B323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="B324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="B325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="B326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="17">
+        <v>44015</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <v>80</v>
+      </c>
+      <c r="D327" t="s">
+        <v>156</v>
+      </c>
+      <c r="E327" t="s">
+        <v>14</v>
+      </c>
+      <c r="F327" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="B328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="B329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="B330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="B331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="B332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="B333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="B334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="B335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="B336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="B337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="B338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="B339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="B340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="B341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="B342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="B343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="B344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="B345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="B346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="B347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="B348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="17">
+        <v>44021</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+      <c r="C349">
+        <v>80</v>
+      </c>
+      <c r="D349" t="s">
+        <v>36</v>
+      </c>
+      <c r="E349" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" t="s">
+        <v>17</v>
+      </c>
+      <c r="G349" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="B350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="B351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="B352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="B385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="B386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="B387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="B388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="B389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="B390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="B391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="B392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="17">
+        <v>44029</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+      <c r="C393">
+        <v>81</v>
+      </c>
+      <c r="E393" t="s">
+        <v>10</v>
+      </c>
+      <c r="F393" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="B394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="B395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="B396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="B397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="B398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="B399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="17">
+        <v>44030</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+      <c r="C400">
+        <v>91</v>
+      </c>
+      <c r="E400" t="s">
+        <v>10</v>
+      </c>
+      <c r="F400" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" s="17">
+        <v>44030</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
+      </c>
+      <c r="C401">
+        <v>89</v>
+      </c>
+      <c r="D401" t="s">
+        <v>42</v>
+      </c>
+      <c r="E401" t="s">
+        <v>14</v>
+      </c>
+      <c r="F401" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" s="17">
+        <v>44030</v>
+      </c>
+      <c r="B402">
+        <v>401</v>
+      </c>
+      <c r="C402">
+        <v>72</v>
+      </c>
+      <c r="D402" t="s">
+        <v>42</v>
+      </c>
+      <c r="E402" t="s">
+        <v>10</v>
+      </c>
+      <c r="F402" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="B403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="B404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="B405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="B406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="B407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="B408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="B409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="17">
+        <v>44031</v>
+      </c>
+      <c r="B410">
+        <v>409</v>
+      </c>
+      <c r="C410">
+        <v>63</v>
+      </c>
+      <c r="D410" t="s">
+        <v>36</v>
+      </c>
+      <c r="E410" t="s">
+        <v>14</v>
+      </c>
+      <c r="F410" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="B411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="B412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="B413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="B414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="B415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="17">
+        <v>44032</v>
+      </c>
+      <c r="B416">
+        <v>415</v>
+      </c>
+      <c r="C416">
+        <v>89</v>
+      </c>
+      <c r="D416" t="s">
+        <v>42</v>
+      </c>
+      <c r="E416" t="s">
+        <v>14</v>
+      </c>
+      <c r="F416" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="B417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="B418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="B419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="B420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="B421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="B422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="B423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="17">
+        <v>44033</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <v>83</v>
+      </c>
+      <c r="D424" t="s">
+        <v>42</v>
+      </c>
+      <c r="E424" t="s">
+        <v>14</v>
+      </c>
+      <c r="F424" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="17">
+        <v>44033</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <v>90</v>
+      </c>
+      <c r="E425" t="s">
+        <v>10</v>
+      </c>
+      <c r="F425" t="s">
+        <v>17</v>
+      </c>
+      <c r="G425" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -7243,7 +8034,7 @@
       </c>
       <c r="L1" s="25">
         <f ca="1">TODAY()</f>
-        <v>43996</v>
+        <v>44033</v>
       </c>
     </row>
     <row r="2" spans="7:12">
@@ -9986,8 +10777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0DD886-0327-44C4-956A-351B4E9C68F7}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10015,7 +10806,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A2)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A2)</f>
         <v>17</v>
       </c>
       <c r="C2">
@@ -10030,8 +10821,8 @@
         <v>17</v>
       </c>
       <c r="B3" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A3)</f>
-        <v>2</v>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A3)</f>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>31.779046000000001</v>
@@ -10045,7 +10836,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A4)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A4)</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -10060,7 +10851,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A5)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A5)</f>
         <v>3</v>
       </c>
       <c r="C5">
@@ -10075,7 +10866,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A6)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A6)</f>
         <v>21</v>
       </c>
       <c r="C6">
@@ -10090,8 +10881,8 @@
         <v>27</v>
       </c>
       <c r="B7" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A7)</f>
-        <v>6</v>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A7)</f>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>32.451450999999999</v>
@@ -10105,7 +10896,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A8)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A8)</f>
         <v>4</v>
       </c>
       <c r="C8">
@@ -10120,7 +10911,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A9)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A9)</f>
         <v>15</v>
       </c>
       <c r="C9">
@@ -10135,8 +10926,8 @@
         <v>32</v>
       </c>
       <c r="B10" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A10)</f>
-        <v>8</v>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A10)</f>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>32.182386999999999</v>
@@ -10150,7 +10941,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A11)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A11)</f>
         <v>15</v>
       </c>
       <c r="C11">
@@ -10165,8 +10956,8 @@
         <v>30</v>
       </c>
       <c r="B12" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A12)</f>
-        <v>11</v>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A12)</f>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>31.259087000000001</v>
@@ -10180,7 +10971,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A13)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A13)</f>
         <v>4</v>
       </c>
       <c r="C13">
@@ -10195,8 +10986,8 @@
         <v>23</v>
       </c>
       <c r="B14" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A14)</f>
-        <v>19</v>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A14)</f>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>32.046719000000003</v>
@@ -10210,7 +11001,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A15)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A15)</f>
         <v>7</v>
       </c>
       <c r="C15">
@@ -10225,7 +11016,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A16)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A16)</f>
         <v>27</v>
       </c>
       <c r="C16">
@@ -10240,7 +11031,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A17)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A17)</f>
         <v>8</v>
       </c>
       <c r="C17">
@@ -10255,7 +11046,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A18)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A18)</f>
         <v>1</v>
       </c>
       <c r="C18">
@@ -10270,7 +11061,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A19)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A19)</f>
         <v>7</v>
       </c>
       <c r="C19">
@@ -10285,7 +11076,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A20)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A20)</f>
         <v>7</v>
       </c>
       <c r="C20">
@@ -10300,7 +11091,7 @@
         <v>54</v>
       </c>
       <c r="B21" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A21)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A21)</f>
         <v>11</v>
       </c>
       <c r="C21">
@@ -10315,7 +11106,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A22)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A22)</f>
         <v>2</v>
       </c>
       <c r="C22">
@@ -10330,7 +11121,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A23)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A23)</f>
         <v>3</v>
       </c>
       <c r="C23">
@@ -10345,7 +11136,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A24)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A24)</f>
         <v>5</v>
       </c>
       <c r="C24">
@@ -10360,7 +11151,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A25)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A25)</f>
         <v>1</v>
       </c>
       <c r="C25">
@@ -10375,7 +11166,7 @@
         <v>132</v>
       </c>
       <c r="B26" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A26)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A26)</f>
         <v>2</v>
       </c>
       <c r="C26">
@@ -10390,7 +11181,7 @@
         <v>150</v>
       </c>
       <c r="B27" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A27)</f>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A27)</f>
         <v>1</v>
       </c>
       <c r="C27">
@@ -10406,8 +11197,8 @@
         <v>144</v>
       </c>
       <c r="B28" s="49">
-        <f>COUNTIF('10yr'!$F$1:$F$400,A28)</f>
-        <v>1</v>
+        <f>COUNTIF('10yr'!$F$1:$F$500,A28)</f>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>33.008367999999997</v>
